--- a/teaching/traditional_assets/database/data/argentina/argentina_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/argentina/argentina_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="base_garo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.249</v>
+        <v>0.298</v>
+      </c>
+      <c r="E2">
+        <v>0.0471</v>
       </c>
       <c r="G2">
-        <v>0.008061538461538462</v>
+        <v>0.01103614457831325</v>
       </c>
       <c r="H2">
-        <v>0.008061538461538462</v>
+        <v>0.01103614457831325</v>
       </c>
       <c r="I2">
-        <v>-0.001107692307692308</v>
+        <v>0.07469879518072289</v>
       </c>
       <c r="J2">
-        <v>-0.001107692307692308</v>
+        <v>0.05088855421686747</v>
       </c>
       <c r="K2">
-        <v>-2.99</v>
+        <v>1.06</v>
       </c>
       <c r="L2">
-        <v>-0.09200000000000001</v>
+        <v>0.0255421686746988</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.12</v>
+        <v>0.583</v>
       </c>
       <c r="V2">
-        <v>0.01926163723916533</v>
+        <v>0.09052795031055899</v>
       </c>
       <c r="W2">
-        <v>-1.136882129277567</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="X2">
-        <v>0.2290252995158054</v>
+        <v>0.2656056426968573</v>
       </c>
       <c r="Y2">
-        <v>-1.365907428793372</v>
+        <v>0.5497789726877581</v>
       </c>
       <c r="Z2">
-        <v>8.639021796916534</v>
+        <v>21.2711430035879</v>
       </c>
       <c r="AA2">
-        <v>-0.009569377990430622</v>
+        <v>1.082457713992824</v>
       </c>
       <c r="AB2">
-        <v>0.1340691064753158</v>
+        <v>0.1581750123956096</v>
       </c>
       <c r="AC2">
-        <v>-0.1436384844657464</v>
+        <v>0.9242827015972146</v>
       </c>
       <c r="AD2">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="AG2">
-        <v>10.18</v>
+        <v>9.917</v>
       </c>
       <c r="AH2">
-        <v>0.6231094978826376</v>
+        <v>0.6198347107438016</v>
       </c>
       <c r="AI2">
-        <v>0.8373983739837398</v>
+        <v>0.7592190889370932</v>
       </c>
       <c r="AJ2">
-        <v>0.6203534430225471</v>
+        <v>0.6062847710460354</v>
       </c>
       <c r="AK2">
-        <v>0.8357963875205254</v>
+        <v>0.7486223295840567</v>
       </c>
       <c r="AL2">
-        <v>4.35</v>
+        <v>0.064</v>
       </c>
       <c r="AM2">
-        <v>4.338</v>
+        <v>0.064</v>
       </c>
       <c r="AN2">
-        <v>13.7150466045273</v>
+        <v>2.734375</v>
       </c>
       <c r="AO2">
-        <v>-0.008275862068965517</v>
+        <v>48.4375</v>
       </c>
       <c r="AP2">
-        <v>13.55525965379494</v>
+        <v>2.582552083333333</v>
       </c>
       <c r="AQ2">
-        <v>-0.008298755186721992</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.249</v>
+        <v>0.298</v>
+      </c>
+      <c r="E3">
+        <v>0.0471</v>
       </c>
       <c r="G3">
-        <v>0.008061538461538462</v>
+        <v>0.01103614457831325</v>
       </c>
       <c r="H3">
-        <v>0.008061538461538462</v>
+        <v>0.01103614457831325</v>
       </c>
       <c r="I3">
-        <v>-0.001107692307692308</v>
+        <v>0.07469879518072289</v>
       </c>
       <c r="J3">
-        <v>-0.001107692307692308</v>
+        <v>0.05088855421686747</v>
       </c>
       <c r="K3">
-        <v>-2.99</v>
+        <v>1.06</v>
       </c>
       <c r="L3">
-        <v>-0.09200000000000001</v>
+        <v>0.0255421686746988</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +763,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0.583</v>
+      </c>
+      <c r="V3">
+        <v>0.09052795031055899</v>
+      </c>
+      <c r="W3">
+        <v>0.8153846153846154</v>
+      </c>
+      <c r="X3">
+        <v>0.2656056426968573</v>
+      </c>
+      <c r="Y3">
+        <v>0.5497789726877581</v>
+      </c>
+      <c r="Z3">
+        <v>21.2711430035879</v>
+      </c>
+      <c r="AA3">
+        <v>1.082457713992824</v>
+      </c>
+      <c r="AB3">
+        <v>0.1581750123956096</v>
+      </c>
+      <c r="AC3">
+        <v>0.9242827015972146</v>
+      </c>
+      <c r="AD3">
+        <v>10.5</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>10.5</v>
+      </c>
+      <c r="AG3">
+        <v>9.917</v>
+      </c>
+      <c r="AH3">
+        <v>0.6198347107438016</v>
+      </c>
+      <c r="AI3">
+        <v>0.7592190889370932</v>
+      </c>
+      <c r="AJ3">
+        <v>0.6062847710460354</v>
+      </c>
+      <c r="AK3">
+        <v>0.7486223295840567</v>
+      </c>
+      <c r="AL3">
+        <v>0.064</v>
+      </c>
+      <c r="AM3">
+        <v>0.064</v>
+      </c>
+      <c r="AN3">
+        <v>2.734375</v>
+      </c>
+      <c r="AO3">
+        <v>48.4375</v>
+      </c>
+      <c r="AP3">
+        <v>2.582552083333333</v>
+      </c>
+      <c r="AQ3">
+        <v>48.4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Garovaglio y Zorraquín S.A. (BASE:GARO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BASE:GARO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.619834710743802</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
+      </c>
+      <c r="G2">
+        <v>6.44</v>
+      </c>
+      <c r="H2">
+        <v>11.9121074500527</v>
+      </c>
+      <c r="I2">
+        <v>16.357</v>
+      </c>
+      <c r="J2">
+        <v>27.5915074500527</v>
+      </c>
+      <c r="K2">
+        <v>10.5</v>
+      </c>
+      <c r="L2">
+        <v>16.2624</v>
+      </c>
+      <c r="M2">
+        <v>0.15817501239561</v>
+      </c>
+      <c r="N2">
+        <v>0.0975571777625124</v>
+      </c>
+      <c r="O2">
+        <v>0.0922842258108444</v>
+      </c>
+      <c r="P2">
+        <v>0.01246</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.265605642696857</v>
+      </c>
+      <c r="T2">
+        <v>2.13988944406281</v>
+      </c>
+      <c r="U2">
+        <v>1.56852234162379</v>
+      </c>
+      <c r="V2">
+        <v>13.0386405413356</v>
+      </c>
+      <c r="W2">
+        <v>10.70920057130476</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>6.44</v>
+      </c>
+      <c r="AB2">
+        <v>0.1634057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.1318346083012062</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>3.84</v>
+      </c>
+      <c r="AH2">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>2.19</v>
+      </c>
+      <c r="AJ2">
+        <v>10.5</v>
+      </c>
+      <c r="AK2">
+        <v>10.5</v>
+      </c>
+      <c r="AL2">
+        <v>0.064</v>
+      </c>
+      <c r="AM2">
+        <v>10.5</v>
+      </c>
+      <c r="AN2">
+        <v>0.583</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1289960361833039</v>
+      </c>
+      <c r="C2">
+        <v>20.92743792295487</v>
+      </c>
+      <c r="D2">
+        <v>20.34443792295487</v>
+      </c>
+      <c r="E2">
+        <v>-10.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.583</v>
+      </c>
+      <c r="H2">
+        <v>6.44</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3.84</v>
+      </c>
+      <c r="K2">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L2">
+        <v>3.1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="P2">
+        <v>2.17</v>
+      </c>
+      <c r="Q2">
+        <v>2.91</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1289960361833039</v>
+      </c>
+      <c r="T2">
+        <v>0.7325078955806548</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.01134</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.128657348074754</v>
+      </c>
+      <c r="C3">
+        <v>20.81576724847005</v>
+      </c>
+      <c r="D3">
+        <v>20.40216724847005</v>
+      </c>
+      <c r="E3">
+        <v>-10.3306</v>
+      </c>
+      <c r="F3">
+        <v>0.1694</v>
+      </c>
+      <c r="G3">
+        <v>0.583</v>
+      </c>
+      <c r="H3">
+        <v>6.44</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.84</v>
+      </c>
+      <c r="K3">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
+        <v>0.00274428</v>
+      </c>
+      <c r="N3">
+        <v>3.09725572</v>
+      </c>
+      <c r="O3">
+        <v>0.929176716</v>
+      </c>
+      <c r="P3">
+        <v>2.168079004</v>
+      </c>
+      <c r="Q3">
+        <v>2.908079004</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1298423717926808</v>
+      </c>
+      <c r="T3">
+        <v>0.7376872443372856</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.3</v>
+      </c>
+      <c r="W3">
+        <v>0.01134</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>1129.622341743554</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1283186599662041</v>
+      </c>
+      <c r="C4">
+        <v>20.70442513147483</v>
+      </c>
+      <c r="D4">
+        <v>20.46022513147483</v>
+      </c>
+      <c r="E4">
+        <v>-10.1612</v>
+      </c>
+      <c r="F4">
+        <v>0.3388</v>
+      </c>
+      <c r="G4">
+        <v>0.583</v>
+      </c>
+      <c r="H4">
+        <v>6.44</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3.84</v>
+      </c>
+      <c r="K4">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
+        <v>0.005488560000000001</v>
+      </c>
+      <c r="N4">
+        <v>3.09451144</v>
+      </c>
+      <c r="O4">
+        <v>0.928353432</v>
+      </c>
+      <c r="P4">
+        <v>2.166158008</v>
+      </c>
+      <c r="Q4">
+        <v>2.906158008</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1307059795573511</v>
+      </c>
+      <c r="T4">
+        <v>0.7429722940889498</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>0.01134</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>564.8111708717769</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1279799718576542</v>
+      </c>
+      <c r="C5">
+        <v>20.59341438487469</v>
+      </c>
+      <c r="D5">
+        <v>20.51861438487469</v>
+      </c>
+      <c r="E5">
+        <v>-9.9918</v>
+      </c>
+      <c r="F5">
+        <v>0.5082</v>
+      </c>
+      <c r="G5">
+        <v>0.583</v>
+      </c>
+      <c r="H5">
+        <v>6.44</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3.84</v>
+      </c>
+      <c r="K5">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>0.00823284</v>
+      </c>
+      <c r="N5">
+        <v>3.09176716</v>
+      </c>
+      <c r="O5">
+        <v>0.927530148</v>
+      </c>
+      <c r="P5">
+        <v>2.164237012</v>
+      </c>
+      <c r="Q5">
+        <v>2.904237012</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1315873936676847</v>
+      </c>
+      <c r="T5">
+        <v>0.7483663139385864</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.01134</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>376.5407805811847</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1276412837491043</v>
+      </c>
+      <c r="C6">
+        <v>20.48273785377681</v>
+      </c>
+      <c r="D6">
+        <v>20.57733785377682</v>
+      </c>
+      <c r="E6">
+        <v>-9.8224</v>
+      </c>
+      <c r="F6">
+        <v>0.6776000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.583</v>
+      </c>
+      <c r="H6">
+        <v>6.44</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3.84</v>
+      </c>
+      <c r="K6">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L6">
+        <v>3.1</v>
+      </c>
+      <c r="M6">
+        <v>0.01097712</v>
+      </c>
+      <c r="N6">
+        <v>3.08902288</v>
+      </c>
+      <c r="O6">
+        <v>0.9267068639999999</v>
+      </c>
+      <c r="P6">
+        <v>2.162316016</v>
+      </c>
+      <c r="Q6">
+        <v>2.902316016</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1324871705719836</v>
+      </c>
+      <c r="T6">
+        <v>0.7538727092017571</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6">
+        <v>0.01134</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>282.4055854358884</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1273025956405544</v>
+      </c>
+      <c r="C7">
+        <v>20.37239841595222</v>
+      </c>
+      <c r="D7">
+        <v>20.63639841595223</v>
+      </c>
+      <c r="E7">
+        <v>-9.653</v>
+      </c>
+      <c r="F7">
+        <v>0.8470000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.583</v>
+      </c>
+      <c r="H7">
+        <v>6.44</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3.84</v>
+      </c>
+      <c r="K7">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3.1</v>
+      </c>
+      <c r="M7">
+        <v>0.0137214</v>
+      </c>
+      <c r="N7">
+        <v>3.0862786</v>
+      </c>
+      <c r="O7">
+        <v>0.9258835799999999</v>
+      </c>
+      <c r="P7">
+        <v>2.16039502</v>
+      </c>
+      <c r="Q7">
+        <v>2.90039502</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.133405890147952</v>
+      </c>
+      <c r="T7">
+        <v>0.7594950285757315</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.3</v>
+      </c>
+      <c r="W7">
+        <v>0.01134</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>225.9244683487108</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1269639075320045</v>
+      </c>
+      <c r="C8">
+        <v>20.26239898230584</v>
+      </c>
+      <c r="D8">
+        <v>20.69579898230584</v>
+      </c>
+      <c r="E8">
+        <v>-9.483599999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.0164</v>
+      </c>
+      <c r="G8">
+        <v>0.583</v>
+      </c>
+      <c r="H8">
+        <v>6.44</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3.84</v>
+      </c>
+      <c r="K8">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L8">
+        <v>3.1</v>
+      </c>
+      <c r="M8">
+        <v>0.01646568</v>
+      </c>
+      <c r="N8">
+        <v>3.08353432</v>
+      </c>
+      <c r="O8">
+        <v>0.9250602959999999</v>
+      </c>
+      <c r="P8">
+        <v>2.158474024</v>
+      </c>
+      <c r="Q8">
+        <v>2.898474024</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1343441569489409</v>
+      </c>
+      <c r="T8">
+        <v>0.7652369717661733</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="W8">
+        <v>0.01134</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>188.2703902905923</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1266252194234546</v>
+      </c>
+      <c r="C9">
+        <v>20.15274249735479</v>
+      </c>
+      <c r="D9">
+        <v>20.75554249735479</v>
+      </c>
+      <c r="E9">
+        <v>-9.3142</v>
+      </c>
+      <c r="F9">
+        <v>1.1858</v>
+      </c>
+      <c r="G9">
+        <v>0.583</v>
+      </c>
+      <c r="H9">
+        <v>6.44</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3.84</v>
+      </c>
+      <c r="K9">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>0.01920996</v>
+      </c>
+      <c r="N9">
+        <v>3.08079004</v>
+      </c>
+      <c r="O9">
+        <v>0.924237012</v>
+      </c>
+      <c r="P9">
+        <v>2.156553028</v>
+      </c>
+      <c r="Q9">
+        <v>2.896553028</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1353026015305963</v>
+      </c>
+      <c r="T9">
+        <v>0.7711023976058721</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.3</v>
+      </c>
+      <c r="W9">
+        <v>0.01134</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>161.3746202490791</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1262865313149047</v>
+      </c>
+      <c r="C10">
+        <v>20.0434319397149</v>
+      </c>
+      <c r="D10">
+        <v>20.8156319397149</v>
+      </c>
+      <c r="E10">
+        <v>-9.1448</v>
+      </c>
+      <c r="F10">
+        <v>1.3552</v>
+      </c>
+      <c r="G10">
+        <v>0.583</v>
+      </c>
+      <c r="H10">
+        <v>6.44</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.84</v>
+      </c>
+      <c r="K10">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L10">
+        <v>3.1</v>
+      </c>
+      <c r="M10">
+        <v>0.02195424</v>
+      </c>
+      <c r="N10">
+        <v>3.07804576</v>
+      </c>
+      <c r="O10">
+        <v>0.923413728</v>
+      </c>
+      <c r="P10">
+        <v>2.154632032</v>
+      </c>
+      <c r="Q10">
+        <v>2.894632032</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1362818818640268</v>
+      </c>
+      <c r="T10">
+        <v>0.7770953327029556</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10">
+        <v>0.01134</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>141.2027927179442</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1259478432063547</v>
+      </c>
+      <c r="C11">
+        <v>19.93447032259578</v>
+      </c>
+      <c r="D11">
+        <v>20.87607032259578</v>
+      </c>
+      <c r="E11">
+        <v>-8.9754</v>
+      </c>
+      <c r="F11">
+        <v>1.5246</v>
+      </c>
+      <c r="G11">
+        <v>0.583</v>
+      </c>
+      <c r="H11">
+        <v>6.44</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3.84</v>
+      </c>
+      <c r="K11">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>0.02469852</v>
+      </c>
+      <c r="N11">
+        <v>3.07530148</v>
+      </c>
+      <c r="O11">
+        <v>0.922590444</v>
+      </c>
+      <c r="P11">
+        <v>2.152711036</v>
+      </c>
+      <c r="Q11">
+        <v>2.892711036</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.137282684842148</v>
+      </c>
+      <c r="T11">
+        <v>0.7832199806593154</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.01134</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>125.5135935270616</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1256091550978048</v>
+      </c>
+      <c r="C12">
+        <v>19.82586069430442</v>
+      </c>
+      <c r="D12">
+        <v>20.93686069430442</v>
+      </c>
+      <c r="E12">
+        <v>-8.805999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.694</v>
+      </c>
+      <c r="G12">
+        <v>0.583</v>
+      </c>
+      <c r="H12">
+        <v>6.44</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3.84</v>
+      </c>
+      <c r="K12">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>0.0274428</v>
+      </c>
+      <c r="N12">
+        <v>3.0725572</v>
+      </c>
+      <c r="O12">
+        <v>0.9217671599999999</v>
+      </c>
+      <c r="P12">
+        <v>2.15079004</v>
+      </c>
+      <c r="Q12">
+        <v>2.89079004</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1383057278864498</v>
+      </c>
+      <c r="T12">
+        <v>0.7894807319035946</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.3</v>
+      </c>
+      <c r="W12">
+        <v>0.01134</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>112.9622341743554</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1252704669892549</v>
+      </c>
+      <c r="C13">
+        <v>19.71760613875783</v>
+      </c>
+      <c r="D13">
+        <v>20.99800613875783</v>
+      </c>
+      <c r="E13">
+        <v>-8.6366</v>
+      </c>
+      <c r="F13">
+        <v>1.8634</v>
+      </c>
+      <c r="G13">
+        <v>0.583</v>
+      </c>
+      <c r="H13">
+        <v>6.44</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3.84</v>
+      </c>
+      <c r="K13">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>0.03018708</v>
+      </c>
+      <c r="N13">
+        <v>3.06981292</v>
+      </c>
+      <c r="O13">
+        <v>0.9209438759999999</v>
+      </c>
+      <c r="P13">
+        <v>2.148869044</v>
+      </c>
+      <c r="Q13">
+        <v>2.888869044</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1393517606620842</v>
+      </c>
+      <c r="T13">
+        <v>0.795882174187071</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+      <c r="W13">
+        <v>0.01134</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>102.6929401585049</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>0.12</v>
       </c>
-      <c r="V3">
-        <v>0.01926163723916533</v>
-      </c>
-      <c r="W3">
-        <v>-1.136882129277567</v>
-      </c>
-      <c r="X3">
-        <v>0.2290252995158054</v>
-      </c>
-      <c r="Y3">
-        <v>-1.365907428793372</v>
-      </c>
-      <c r="Z3">
-        <v>8.639021796916534</v>
-      </c>
-      <c r="AA3">
-        <v>-0.009569377990430622</v>
-      </c>
-      <c r="AB3">
-        <v>0.1340691064753158</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1436384844657464</v>
-      </c>
-      <c r="AD3">
-        <v>10.3</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>10.3</v>
-      </c>
-      <c r="AG3">
-        <v>10.18</v>
-      </c>
-      <c r="AH3">
-        <v>0.6231094978826376</v>
-      </c>
-      <c r="AI3">
-        <v>0.8373983739837398</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6203534430225471</v>
-      </c>
-      <c r="AK3">
-        <v>0.8357963875205254</v>
-      </c>
-      <c r="AL3">
-        <v>4.35</v>
-      </c>
-      <c r="AM3">
-        <v>4.338</v>
-      </c>
-      <c r="AN3">
-        <v>13.7150466045273</v>
-      </c>
-      <c r="AO3">
-        <v>-0.008275862068965517</v>
-      </c>
-      <c r="AP3">
-        <v>13.55525965379494</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.008298755186721992</v>
+      <c r="B14">
+        <v>0.124931778880705</v>
+      </c>
+      <c r="C14">
+        <v>19.60970977600441</v>
+      </c>
+      <c r="D14">
+        <v>21.05950977600441</v>
+      </c>
+      <c r="E14">
+        <v>-8.4672</v>
+      </c>
+      <c r="F14">
+        <v>2.0328</v>
+      </c>
+      <c r="G14">
+        <v>0.583</v>
+      </c>
+      <c r="H14">
+        <v>6.44</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3.84</v>
+      </c>
+      <c r="K14">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L14">
+        <v>3.1</v>
+      </c>
+      <c r="M14">
+        <v>0.03293136</v>
+      </c>
+      <c r="N14">
+        <v>3.06706864</v>
+      </c>
+      <c r="O14">
+        <v>0.920120592</v>
+      </c>
+      <c r="P14">
+        <v>2.146948048</v>
+      </c>
+      <c r="Q14">
+        <v>2.886948048</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.140421566909892</v>
+      </c>
+      <c r="T14">
+        <v>0.8024291037951718</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.01134</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>94.13519514529615</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1245930907721551</v>
+      </c>
+      <c r="C15">
+        <v>19.50217476275473</v>
+      </c>
+      <c r="D15">
+        <v>21.12137476275473</v>
+      </c>
+      <c r="E15">
+        <v>-8.297799999999999</v>
+      </c>
+      <c r="F15">
+        <v>2.2022</v>
+      </c>
+      <c r="G15">
+        <v>0.583</v>
+      </c>
+      <c r="H15">
+        <v>6.44</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3.84</v>
+      </c>
+      <c r="K15">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L15">
+        <v>3.1</v>
+      </c>
+      <c r="M15">
+        <v>0.03567564</v>
+      </c>
+      <c r="N15">
+        <v>3.06432436</v>
+      </c>
+      <c r="O15">
+        <v>0.919297308</v>
+      </c>
+      <c r="P15">
+        <v>2.145027052</v>
+      </c>
+      <c r="Q15">
+        <v>2.885027052</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.141515966404776</v>
+      </c>
+      <c r="T15">
+        <v>0.8091265375321944</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.3</v>
+      </c>
+      <c r="W15">
+        <v>0.01134</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>86.89402628796569</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1242544026636052</v>
+      </c>
+      <c r="C16">
+        <v>19.39500429292162</v>
+      </c>
+      <c r="D16">
+        <v>21.18360429292162</v>
+      </c>
+      <c r="E16">
+        <v>-8.128399999999999</v>
+      </c>
+      <c r="F16">
+        <v>2.3716</v>
+      </c>
+      <c r="G16">
+        <v>0.583</v>
+      </c>
+      <c r="H16">
+        <v>6.44</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.84</v>
+      </c>
+      <c r="K16">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L16">
+        <v>3.1</v>
+      </c>
+      <c r="M16">
+        <v>0.03841992</v>
+      </c>
+      <c r="N16">
+        <v>3.06158008</v>
+      </c>
+      <c r="O16">
+        <v>0.918474024</v>
+      </c>
+      <c r="P16">
+        <v>2.143106056</v>
+      </c>
+      <c r="Q16">
+        <v>2.883106056</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1426358170507037</v>
+      </c>
+      <c r="T16">
+        <v>0.8159797255421712</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.3</v>
+      </c>
+      <c r="W16">
+        <v>0.01134</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>80.68731012453956</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1239157145550552</v>
+      </c>
+      <c r="C17">
+        <v>19.28820159816978</v>
+      </c>
+      <c r="D17">
+        <v>21.24620159816979</v>
+      </c>
+      <c r="E17">
+        <v>-7.959</v>
+      </c>
+      <c r="F17">
+        <v>2.541</v>
+      </c>
+      <c r="G17">
+        <v>0.583</v>
+      </c>
+      <c r="H17">
+        <v>6.44</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3.84</v>
+      </c>
+      <c r="K17">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L17">
+        <v>3.1</v>
+      </c>
+      <c r="M17">
+        <v>0.0411642</v>
+      </c>
+      <c r="N17">
+        <v>3.0588358</v>
+      </c>
+      <c r="O17">
+        <v>0.91765074</v>
+      </c>
+      <c r="P17">
+        <v>2.14118506</v>
+      </c>
+      <c r="Q17">
+        <v>2.88118506</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1437820171235944</v>
+      </c>
+      <c r="T17">
+        <v>0.8229941650347357</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.01134</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>75.30815611623693</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1235770264465053</v>
+      </c>
+      <c r="C18">
+        <v>19.18176994847529</v>
+      </c>
+      <c r="D18">
+        <v>21.30916994847529</v>
+      </c>
+      <c r="E18">
+        <v>-7.7896</v>
+      </c>
+      <c r="F18">
+        <v>2.7104</v>
+      </c>
+      <c r="G18">
+        <v>0.583</v>
+      </c>
+      <c r="H18">
+        <v>6.44</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3.84</v>
+      </c>
+      <c r="K18">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L18">
+        <v>3.1</v>
+      </c>
+      <c r="M18">
+        <v>0.04390848000000001</v>
+      </c>
+      <c r="N18">
+        <v>3.05609152</v>
+      </c>
+      <c r="O18">
+        <v>0.916827456</v>
+      </c>
+      <c r="P18">
+        <v>2.139264064</v>
+      </c>
+      <c r="Q18">
+        <v>2.879264064</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1449555076744111</v>
+      </c>
+      <c r="T18">
+        <v>0.8301756149914087</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.3</v>
+      </c>
+      <c r="W18">
+        <v>0.01134</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>70.60139635897211</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1232383383379554</v>
+      </c>
+      <c r="C19">
+        <v>19.07571265269491</v>
+      </c>
+      <c r="D19">
+        <v>21.37251265269492</v>
+      </c>
+      <c r="E19">
+        <v>-7.6202</v>
+      </c>
+      <c r="F19">
+        <v>2.8798</v>
+      </c>
+      <c r="G19">
+        <v>0.583</v>
+      </c>
+      <c r="H19">
+        <v>6.44</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3.84</v>
+      </c>
+      <c r="K19">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L19">
+        <v>3.1</v>
+      </c>
+      <c r="M19">
+        <v>0.04665276</v>
+      </c>
+      <c r="N19">
+        <v>3.05334724</v>
+      </c>
+      <c r="O19">
+        <v>0.9160041719999999</v>
+      </c>
+      <c r="P19">
+        <v>2.137343068</v>
+      </c>
+      <c r="Q19">
+        <v>2.877343068</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1461572751059704</v>
+      </c>
+      <c r="T19">
+        <v>0.8375301119349897</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.3</v>
+      </c>
+      <c r="W19">
+        <v>0.01134</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>66.44837304373846</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1228996502294055</v>
+      </c>
+      <c r="C20">
+        <v>18.97003305914584</v>
+      </c>
+      <c r="D20">
+        <v>21.43623305914584</v>
+      </c>
+      <c r="E20">
+        <v>-7.4508</v>
+      </c>
+      <c r="F20">
+        <v>3.0492</v>
+      </c>
+      <c r="G20">
+        <v>0.583</v>
+      </c>
+      <c r="H20">
+        <v>6.44</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.84</v>
+      </c>
+      <c r="K20">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>0.04939704</v>
+      </c>
+      <c r="N20">
+        <v>3.05060296</v>
+      </c>
+      <c r="O20">
+        <v>0.915180888</v>
+      </c>
+      <c r="P20">
+        <v>2.135422072</v>
+      </c>
+      <c r="Q20">
+        <v>2.875422072</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1473883539382994</v>
+      </c>
+      <c r="T20">
+        <v>0.8450639868528041</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.01134</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>62.75679676353077</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1225609621208556</v>
+      </c>
+      <c r="C21">
+        <v>18.86473455619554</v>
+      </c>
+      <c r="D21">
+        <v>21.50033455619555</v>
+      </c>
+      <c r="E21">
+        <v>-7.2814</v>
+      </c>
+      <c r="F21">
+        <v>3.2186</v>
+      </c>
+      <c r="G21">
+        <v>0.583</v>
+      </c>
+      <c r="H21">
+        <v>6.44</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3.84</v>
+      </c>
+      <c r="K21">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
+        <v>0.05214132</v>
+      </c>
+      <c r="N21">
+        <v>3.04785868</v>
+      </c>
+      <c r="O21">
+        <v>0.914357604</v>
+      </c>
+      <c r="P21">
+        <v>2.133501076</v>
+      </c>
+      <c r="Q21">
+        <v>2.873501076</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1486498297788341</v>
+      </c>
+      <c r="T21">
+        <v>0.8527838833735276</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.3</v>
+      </c>
+      <c r="W21">
+        <v>0.01134</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>59.45380746018704</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1222222740123057</v>
+      </c>
+      <c r="C22">
+        <v>18.7598205728625</v>
+      </c>
+      <c r="D22">
+        <v>21.5648205728625</v>
+      </c>
+      <c r="E22">
+        <v>-7.112</v>
+      </c>
+      <c r="F22">
+        <v>3.388</v>
+      </c>
+      <c r="G22">
+        <v>0.583</v>
+      </c>
+      <c r="H22">
+        <v>6.44</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.84</v>
+      </c>
+      <c r="K22">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>0.0548856</v>
+      </c>
+      <c r="N22">
+        <v>3.0451144</v>
+      </c>
+      <c r="O22">
+        <v>0.91353432</v>
+      </c>
+      <c r="P22">
+        <v>2.13158008</v>
+      </c>
+      <c r="Q22">
+        <v>2.87158008</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1499428425153821</v>
+      </c>
+      <c r="T22">
+        <v>0.8606967773072693</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.3</v>
+      </c>
+      <c r="W22">
+        <v>0.01134</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>56.48111708717769</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1218835859037558</v>
+      </c>
+      <c r="C23">
+        <v>18.65529457942758</v>
+      </c>
+      <c r="D23">
+        <v>21.62969457942759</v>
+      </c>
+      <c r="E23">
+        <v>-6.9426</v>
+      </c>
+      <c r="F23">
+        <v>3.5574</v>
+      </c>
+      <c r="G23">
+        <v>0.583</v>
+      </c>
+      <c r="H23">
+        <v>6.44</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3.84</v>
+      </c>
+      <c r="K23">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="M23">
+        <v>0.05762988</v>
+      </c>
+      <c r="N23">
+        <v>3.04237012</v>
+      </c>
+      <c r="O23">
+        <v>0.912711036</v>
+      </c>
+      <c r="P23">
+        <v>2.129659084</v>
+      </c>
+      <c r="Q23">
+        <v>2.869659084</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1512685897515896</v>
+      </c>
+      <c r="T23">
+        <v>0.8688099976697132</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.3</v>
+      </c>
+      <c r="W23">
+        <v>0.01134</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>53.79154008302638</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1215448977952059</v>
+      </c>
+      <c r="C24">
+        <v>18.55116008805663</v>
+      </c>
+      <c r="D24">
+        <v>21.69496008805663</v>
+      </c>
+      <c r="E24">
+        <v>-6.773199999999999</v>
+      </c>
+      <c r="F24">
+        <v>3.7268</v>
+      </c>
+      <c r="G24">
+        <v>0.583</v>
+      </c>
+      <c r="H24">
+        <v>6.44</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3.84</v>
+      </c>
+      <c r="K24">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>0.06037416</v>
+      </c>
+      <c r="N24">
+        <v>3.03962584</v>
+      </c>
+      <c r="O24">
+        <v>0.9118877520000001</v>
+      </c>
+      <c r="P24">
+        <v>2.127738088</v>
+      </c>
+      <c r="Q24">
+        <v>2.867738088</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1526283305066742</v>
+      </c>
+      <c r="T24">
+        <v>0.8771312493235019</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.3</v>
+      </c>
+      <c r="W24">
+        <v>0.01134</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>51.34647007925245</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.121206209686656</v>
+      </c>
+      <c r="C25">
+        <v>18.44742065343422</v>
+      </c>
+      <c r="D25">
+        <v>21.76062065343422</v>
+      </c>
+      <c r="E25">
+        <v>-6.6038</v>
+      </c>
+      <c r="F25">
+        <v>3.8962</v>
+      </c>
+      <c r="G25">
+        <v>0.583</v>
+      </c>
+      <c r="H25">
+        <v>6.44</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.84</v>
+      </c>
+      <c r="K25">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>0.06311844</v>
+      </c>
+      <c r="N25">
+        <v>3.03688156</v>
+      </c>
+      <c r="O25">
+        <v>0.9110644680000001</v>
+      </c>
+      <c r="P25">
+        <v>2.125817092</v>
+      </c>
+      <c r="Q25">
+        <v>2.865817092</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1540233892034493</v>
+      </c>
+      <c r="T25">
+        <v>0.8856686373838825</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.3</v>
+      </c>
+      <c r="W25">
+        <v>0.01134</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>49.11401485841539</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1208675215781061</v>
+      </c>
+      <c r="C26">
+        <v>18.34407987340913</v>
+      </c>
+      <c r="D26">
+        <v>21.82667987340913</v>
+      </c>
+      <c r="E26">
+        <v>-6.4344</v>
+      </c>
+      <c r="F26">
+        <v>4.0656</v>
+      </c>
+      <c r="G26">
+        <v>0.583</v>
+      </c>
+      <c r="H26">
+        <v>6.44</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3.84</v>
+      </c>
+      <c r="K26">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L26">
+        <v>3.1</v>
+      </c>
+      <c r="M26">
+        <v>0.06586272</v>
+      </c>
+      <c r="N26">
+        <v>3.03413728</v>
+      </c>
+      <c r="O26">
+        <v>0.910241184</v>
+      </c>
+      <c r="P26">
+        <v>2.123896096</v>
+      </c>
+      <c r="Q26">
+        <v>2.863896096</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1554551599711922</v>
+      </c>
+      <c r="T26">
+        <v>0.8944306935511153</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.3</v>
+      </c>
+      <c r="W26">
+        <v>0.01134</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>47.06759757264808</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1205288334695561</v>
+      </c>
+      <c r="C27">
+        <v>18.24114138965144</v>
+      </c>
+      <c r="D27">
+        <v>21.89314138965144</v>
+      </c>
+      <c r="E27">
+        <v>-6.265</v>
+      </c>
+      <c r="F27">
+        <v>4.235</v>
+      </c>
+      <c r="G27">
+        <v>0.583</v>
+      </c>
+      <c r="H27">
+        <v>6.44</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3.84</v>
+      </c>
+      <c r="K27">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>0.068607</v>
+      </c>
+      <c r="N27">
+        <v>3.031393</v>
+      </c>
+      <c r="O27">
+        <v>0.9094179</v>
+      </c>
+      <c r="P27">
+        <v>2.1219751</v>
+      </c>
+      <c r="Q27">
+        <v>2.8619751</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1569251112927415</v>
+      </c>
+      <c r="T27">
+        <v>0.9034264045494742</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.3</v>
+      </c>
+      <c r="W27">
+        <v>0.01134</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>45.18489366974215</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1201901453610062</v>
+      </c>
+      <c r="C28">
+        <v>18.13860888832174</v>
+      </c>
+      <c r="D28">
+        <v>21.96000888832174</v>
+      </c>
+      <c r="E28">
+        <v>-6.095599999999999</v>
+      </c>
+      <c r="F28">
+        <v>4.404400000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.583</v>
+      </c>
+      <c r="H28">
+        <v>6.44</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3.84</v>
+      </c>
+      <c r="K28">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L28">
+        <v>3.1</v>
+      </c>
+      <c r="M28">
+        <v>0.07135128</v>
+      </c>
+      <c r="N28">
+        <v>3.02864872</v>
+      </c>
+      <c r="O28">
+        <v>0.908594616</v>
+      </c>
+      <c r="P28">
+        <v>2.120054104</v>
+      </c>
+      <c r="Q28">
+        <v>2.860054104</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1584347910283868</v>
+      </c>
+      <c r="T28">
+        <v>0.912665242872113</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.3</v>
+      </c>
+      <c r="W28">
+        <v>0.01134</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>43.44701314398284</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1198514572524563</v>
+      </c>
+      <c r="C29">
+        <v>18.03648610075269</v>
+      </c>
+      <c r="D29">
+        <v>22.02728610075269</v>
+      </c>
+      <c r="E29">
+        <v>-5.9262</v>
+      </c>
+      <c r="F29">
+        <v>4.5738</v>
+      </c>
+      <c r="G29">
+        <v>0.583</v>
+      </c>
+      <c r="H29">
+        <v>6.44</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3.84</v>
+      </c>
+      <c r="K29">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
+        <v>0.07409556</v>
+      </c>
+      <c r="N29">
+        <v>3.02590444</v>
+      </c>
+      <c r="O29">
+        <v>0.907771332</v>
+      </c>
+      <c r="P29">
+        <v>2.118133108</v>
+      </c>
+      <c r="Q29">
+        <v>2.858133108</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1599858318526799</v>
+      </c>
+      <c r="T29">
+        <v>0.9221572000529066</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.3</v>
+      </c>
+      <c r="W29">
+        <v>0.01134</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>41.83786450902051</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1195127691439064</v>
+      </c>
+      <c r="C30">
+        <v>17.93477680414307</v>
+      </c>
+      <c r="D30">
+        <v>22.09497680414307</v>
+      </c>
+      <c r="E30">
+        <v>-5.756799999999999</v>
+      </c>
+      <c r="F30">
+        <v>4.743200000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.583</v>
+      </c>
+      <c r="H30">
+        <v>6.44</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3.84</v>
+      </c>
+      <c r="K30">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L30">
+        <v>3.1</v>
+      </c>
+      <c r="M30">
+        <v>0.07683984000000001</v>
+      </c>
+      <c r="N30">
+        <v>3.02316016</v>
+      </c>
+      <c r="O30">
+        <v>0.9069480480000001</v>
+      </c>
+      <c r="P30">
+        <v>2.116212112</v>
+      </c>
+      <c r="Q30">
+        <v>2.856212112</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1615799571443144</v>
+      </c>
+      <c r="T30">
+        <v>0.9319128227109441</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.3</v>
+      </c>
+      <c r="W30">
+        <v>0.01134</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>40.34365506226978</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1191740810353565</v>
+      </c>
+      <c r="C31">
+        <v>17.83348482226465</v>
+      </c>
+      <c r="D31">
+        <v>22.16308482226466</v>
+      </c>
+      <c r="E31">
+        <v>-5.5874</v>
+      </c>
+      <c r="F31">
+        <v>4.9126</v>
+      </c>
+      <c r="G31">
+        <v>0.583</v>
+      </c>
+      <c r="H31">
+        <v>6.44</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3.84</v>
+      </c>
+      <c r="K31">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L31">
+        <v>3.1</v>
+      </c>
+      <c r="M31">
+        <v>0.07958411999999999</v>
+      </c>
+      <c r="N31">
+        <v>3.02041588</v>
+      </c>
+      <c r="O31">
+        <v>0.9061247640000001</v>
+      </c>
+      <c r="P31">
+        <v>2.114291116</v>
+      </c>
+      <c r="Q31">
+        <v>2.854291116</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1632189873737415</v>
+      </c>
+      <c r="T31">
+        <v>0.9419432516410392</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.3</v>
+      </c>
+      <c r="W31">
+        <v>0.01134</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>38.95249454288118</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1188353929268066</v>
+      </c>
+      <c r="C32">
+        <v>17.73261402618234</v>
+      </c>
+      <c r="D32">
+        <v>22.23161402618234</v>
+      </c>
+      <c r="E32">
+        <v>-5.418</v>
+      </c>
+      <c r="F32">
+        <v>5.082</v>
+      </c>
+      <c r="G32">
+        <v>0.583</v>
+      </c>
+      <c r="H32">
+        <v>6.44</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3.84</v>
+      </c>
+      <c r="K32">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>0.0823284</v>
+      </c>
+      <c r="N32">
+        <v>3.0176716</v>
+      </c>
+      <c r="O32">
+        <v>0.9053014799999999</v>
+      </c>
+      <c r="P32">
+        <v>2.11237012</v>
+      </c>
+      <c r="Q32">
+        <v>2.85237012</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1649048470382951</v>
+      </c>
+      <c r="T32">
+        <v>0.9522602642548512</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.3</v>
+      </c>
+      <c r="W32">
+        <v>0.01134</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>37.65407805811846</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1184967048182567</v>
+      </c>
+      <c r="C33">
+        <v>17.63216833498745</v>
+      </c>
+      <c r="D33">
+        <v>22.30056833498746</v>
+      </c>
+      <c r="E33">
+        <v>-5.2486</v>
+      </c>
+      <c r="F33">
+        <v>5.2514</v>
+      </c>
+      <c r="G33">
+        <v>0.583</v>
+      </c>
+      <c r="H33">
+        <v>6.44</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>3.84</v>
+      </c>
+      <c r="K33">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>0.08507268</v>
+      </c>
+      <c r="N33">
+        <v>3.01492732</v>
+      </c>
+      <c r="O33">
+        <v>0.9044781959999999</v>
+      </c>
+      <c r="P33">
+        <v>2.110449124</v>
+      </c>
+      <c r="Q33">
+        <v>2.850449124</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.166639572200372</v>
+      </c>
+      <c r="T33">
+        <v>0.9628763207125418</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.3</v>
+      </c>
+      <c r="W33">
+        <v>0.01134</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>36.43943037882432</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1181580167097067</v>
+      </c>
+      <c r="C34">
+        <v>17.53215171654498</v>
+      </c>
+      <c r="D34">
+        <v>22.36995171654499</v>
+      </c>
+      <c r="E34">
+        <v>-5.079199999999999</v>
+      </c>
+      <c r="F34">
+        <v>5.420800000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.583</v>
+      </c>
+      <c r="H34">
+        <v>6.44</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3.84</v>
+      </c>
+      <c r="K34">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L34">
+        <v>3.1</v>
+      </c>
+      <c r="M34">
+        <v>0.08781696000000001</v>
+      </c>
+      <c r="N34">
+        <v>3.01218304</v>
+      </c>
+      <c r="O34">
+        <v>0.9036549119999999</v>
+      </c>
+      <c r="P34">
+        <v>2.108528128</v>
+      </c>
+      <c r="Q34">
+        <v>2.848528128</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1684253186907452</v>
+      </c>
+      <c r="T34">
+        <v>0.9738046141248704</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.3</v>
+      </c>
+      <c r="W34">
+        <v>0.01134</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>35.30069817948606</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1178193286011568</v>
+      </c>
+      <c r="C35">
+        <v>17.4325681882546</v>
+      </c>
+      <c r="D35">
+        <v>22.4397681882546</v>
+      </c>
+      <c r="E35">
+        <v>-4.9098</v>
+      </c>
+      <c r="F35">
+        <v>5.5902</v>
+      </c>
+      <c r="G35">
+        <v>0.583</v>
+      </c>
+      <c r="H35">
+        <v>6.44</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3.84</v>
+      </c>
+      <c r="K35">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L35">
+        <v>3.1</v>
+      </c>
+      <c r="M35">
+        <v>0.09056124</v>
+      </c>
+      <c r="N35">
+        <v>3.00943876</v>
+      </c>
+      <c r="O35">
+        <v>0.9028316279999999</v>
+      </c>
+      <c r="P35">
+        <v>2.106607132</v>
+      </c>
+      <c r="Q35">
+        <v>2.846607132</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1702643710465028</v>
+      </c>
+      <c r="T35">
+        <v>0.985059125251</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.3</v>
+      </c>
+      <c r="W35">
+        <v>0.01134</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>34.23098005283497</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1174806404926069</v>
+      </c>
+      <c r="C36">
+        <v>17.33342181782613</v>
+      </c>
+      <c r="D36">
+        <v>22.51002181782613</v>
+      </c>
+      <c r="E36">
+        <v>-4.740399999999999</v>
+      </c>
+      <c r="F36">
+        <v>5.759600000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.583</v>
+      </c>
+      <c r="H36">
+        <v>6.44</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3.84</v>
+      </c>
+      <c r="K36">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
+        <v>0.09330552</v>
+      </c>
+      <c r="N36">
+        <v>3.00669448</v>
+      </c>
+      <c r="O36">
+        <v>0.902008344</v>
+      </c>
+      <c r="P36">
+        <v>2.104686136</v>
+      </c>
+      <c r="Q36">
+        <v>2.844686136</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1721591522615256</v>
+      </c>
+      <c r="T36">
+        <v>0.9966546821688302</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.3</v>
+      </c>
+      <c r="W36">
+        <v>0.01134</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>33.22418652186924</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.117141952384057</v>
+      </c>
+      <c r="C37">
+        <v>17.23471672406953</v>
+      </c>
+      <c r="D37">
+        <v>22.58071672406954</v>
+      </c>
+      <c r="E37">
+        <v>-4.570999999999999</v>
+      </c>
+      <c r="F37">
+        <v>5.929000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.583</v>
+      </c>
+      <c r="H37">
+        <v>6.44</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.84</v>
+      </c>
+      <c r="K37">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L37">
+        <v>3.1</v>
+      </c>
+      <c r="M37">
+        <v>0.09604980000000002</v>
+      </c>
+      <c r="N37">
+        <v>3.0039502</v>
+      </c>
+      <c r="O37">
+        <v>0.90118506</v>
+      </c>
+      <c r="P37">
+        <v>2.10276514</v>
+      </c>
+      <c r="Q37">
+        <v>2.84276514</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1741122344370108</v>
+      </c>
+      <c r="T37">
+        <v>1.008607025453363</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.01134</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>32.27492404981582</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1168032642755071</v>
+      </c>
+      <c r="C38">
+        <v>17.13645707769988</v>
+      </c>
+      <c r="D38">
+        <v>22.65185707769988</v>
+      </c>
+      <c r="E38">
+        <v>-4.4016</v>
+      </c>
+      <c r="F38">
+        <v>6.0984</v>
+      </c>
+      <c r="G38">
+        <v>0.583</v>
+      </c>
+      <c r="H38">
+        <v>6.44</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3.84</v>
+      </c>
+      <c r="K38">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>0.09879407999999999</v>
+      </c>
+      <c r="N38">
+        <v>3.00120592</v>
+      </c>
+      <c r="O38">
+        <v>0.900361776</v>
+      </c>
+      <c r="P38">
+        <v>2.100844144</v>
+      </c>
+      <c r="Q38">
+        <v>2.840844144</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1761263504304799</v>
+      </c>
+      <c r="T38">
+        <v>1.020932879465538</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.3</v>
+      </c>
+      <c r="W38">
+        <v>0.01134</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>31.37839838176539</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1164645761669572</v>
+      </c>
+      <c r="C39">
+        <v>17.03864710215755</v>
+      </c>
+      <c r="D39">
+        <v>22.72344710215756</v>
+      </c>
+      <c r="E39">
+        <v>-4.2322</v>
+      </c>
+      <c r="F39">
+        <v>6.2678</v>
+      </c>
+      <c r="G39">
+        <v>0.583</v>
+      </c>
+      <c r="H39">
+        <v>6.44</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3.84</v>
+      </c>
+      <c r="K39">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>0.10153836</v>
+      </c>
+      <c r="N39">
+        <v>2.99846164</v>
+      </c>
+      <c r="O39">
+        <v>0.8995384919999999</v>
+      </c>
+      <c r="P39">
+        <v>2.098923148</v>
+      </c>
+      <c r="Q39">
+        <v>2.838923148</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1782044066142178</v>
+      </c>
+      <c r="T39">
+        <v>1.033650030430479</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.3</v>
+      </c>
+      <c r="W39">
+        <v>0.01134</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>30.53033356063659</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1161258880584073</v>
+      </c>
+      <c r="C40">
+        <v>16.94129107444409</v>
+      </c>
+      <c r="D40">
+        <v>22.79549107444409</v>
+      </c>
+      <c r="E40">
+        <v>-4.062799999999999</v>
+      </c>
+      <c r="F40">
+        <v>6.437200000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.583</v>
+      </c>
+      <c r="H40">
+        <v>6.44</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3.84</v>
+      </c>
+      <c r="K40">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L40">
+        <v>3.1</v>
+      </c>
+      <c r="M40">
+        <v>0.10428264</v>
+      </c>
+      <c r="N40">
+        <v>2.99571736</v>
+      </c>
+      <c r="O40">
+        <v>0.8987152079999999</v>
+      </c>
+      <c r="P40">
+        <v>2.097002152</v>
+      </c>
+      <c r="Q40">
+        <v>2.837002152</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1803494968683989</v>
+      </c>
+      <c r="T40">
+        <v>1.04677741207171</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.3</v>
+      </c>
+      <c r="W40">
+        <v>0.01134</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>29.72690373009352</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1157871999498574</v>
+      </c>
+      <c r="C41">
+        <v>16.8443933259739</v>
+      </c>
+      <c r="D41">
+        <v>22.8679933259739</v>
+      </c>
+      <c r="E41">
+        <v>-3.893399999999999</v>
+      </c>
+      <c r="F41">
+        <v>6.606600000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.583</v>
+      </c>
+      <c r="H41">
+        <v>6.44</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3.84</v>
+      </c>
+      <c r="K41">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L41">
+        <v>3.1</v>
+      </c>
+      <c r="M41">
+        <v>0.10702692</v>
+      </c>
+      <c r="N41">
+        <v>2.99297308</v>
+      </c>
+      <c r="O41">
+        <v>0.897891924</v>
+      </c>
+      <c r="P41">
+        <v>2.095081156</v>
+      </c>
+      <c r="Q41">
+        <v>2.835081156</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1825649179505859</v>
+      </c>
+      <c r="T41">
+        <v>1.060335199668391</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.3</v>
+      </c>
+      <c r="W41">
+        <v>0.01134</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>28.96467542932189</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1154485118413075</v>
+      </c>
+      <c r="C42">
+        <v>16.74795824344241</v>
+      </c>
+      <c r="D42">
+        <v>22.94095824344241</v>
+      </c>
+      <c r="E42">
+        <v>-3.723999999999999</v>
+      </c>
+      <c r="F42">
+        <v>6.776000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.583</v>
+      </c>
+      <c r="H42">
+        <v>6.44</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3.84</v>
+      </c>
+      <c r="K42">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L42">
+        <v>3.1</v>
+      </c>
+      <c r="M42">
+        <v>0.1097712</v>
+      </c>
+      <c r="N42">
+        <v>2.9902288</v>
+      </c>
+      <c r="O42">
+        <v>0.89706864</v>
+      </c>
+      <c r="P42">
+        <v>2.09316016</v>
+      </c>
+      <c r="Q42">
+        <v>2.83316016</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1848541864021791</v>
+      </c>
+      <c r="T42">
+        <v>1.074344913518294</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.3</v>
+      </c>
+      <c r="W42">
+        <v>0.01134</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>28.24055854358885</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1151098237327575</v>
+      </c>
+      <c r="C43">
+        <v>16.65199026971077</v>
+      </c>
+      <c r="D43">
+        <v>23.01439026971077</v>
+      </c>
+      <c r="E43">
+        <v>-3.554599999999999</v>
+      </c>
+      <c r="F43">
+        <v>6.945400000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.583</v>
+      </c>
+      <c r="H43">
+        <v>6.44</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3.84</v>
+      </c>
+      <c r="K43">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L43">
+        <v>3.1</v>
+      </c>
+      <c r="M43">
+        <v>0.11251548</v>
+      </c>
+      <c r="N43">
+        <v>2.98748452</v>
+      </c>
+      <c r="O43">
+        <v>0.896245356</v>
+      </c>
+      <c r="P43">
+        <v>2.091239164</v>
+      </c>
+      <c r="Q43">
+        <v>2.831239164</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1872210571741653</v>
+      </c>
+      <c r="T43">
+        <v>1.088829532922431</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.3</v>
+      </c>
+      <c r="W43">
+        <v>0.01134</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>27.55176443276961</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1147711356242076</v>
+      </c>
+      <c r="C44">
+        <v>16.55649390470764</v>
+      </c>
+      <c r="D44">
+        <v>23.08829390470765</v>
+      </c>
+      <c r="E44">
+        <v>-3.385199999999999</v>
+      </c>
+      <c r="F44">
+        <v>7.114800000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.583</v>
+      </c>
+      <c r="H44">
+        <v>6.44</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3.84</v>
+      </c>
+      <c r="K44">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L44">
+        <v>3.1</v>
+      </c>
+      <c r="M44">
+        <v>0.11525976</v>
+      </c>
+      <c r="N44">
+        <v>2.98474024</v>
+      </c>
+      <c r="O44">
+        <v>0.895422072</v>
+      </c>
+      <c r="P44">
+        <v>2.089318168</v>
+      </c>
+      <c r="Q44">
+        <v>2.829318168</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1896695441796683</v>
+      </c>
+      <c r="T44">
+        <v>1.103813621961193</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.3</v>
+      </c>
+      <c r="W44">
+        <v>0.01134</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>26.89577004151319</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1144324475156577</v>
+      </c>
+      <c r="C45">
+        <v>16.46147370634848</v>
+      </c>
+      <c r="D45">
+        <v>23.16267370634848</v>
+      </c>
+      <c r="E45">
+        <v>-3.2158</v>
+      </c>
+      <c r="F45">
+        <v>7.2842</v>
+      </c>
+      <c r="G45">
+        <v>0.583</v>
+      </c>
+      <c r="H45">
+        <v>6.44</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3.84</v>
+      </c>
+      <c r="K45">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L45">
+        <v>3.1</v>
+      </c>
+      <c r="M45">
+        <v>0.11800404</v>
+      </c>
+      <c r="N45">
+        <v>2.98199596</v>
+      </c>
+      <c r="O45">
+        <v>0.8945987879999999</v>
+      </c>
+      <c r="P45">
+        <v>2.087397172</v>
+      </c>
+      <c r="Q45">
+        <v>2.827397172</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1922039430099258</v>
+      </c>
+      <c r="T45">
+        <v>1.119323468510088</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.3</v>
+      </c>
+      <c r="W45">
+        <v>0.01134</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>26.27028701729195</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1140937594071078</v>
+      </c>
+      <c r="C46">
+        <v>16.3669342914725</v>
+      </c>
+      <c r="D46">
+        <v>23.2375342914725</v>
+      </c>
+      <c r="E46">
+        <v>-3.046399999999999</v>
+      </c>
+      <c r="F46">
+        <v>7.453600000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.583</v>
+      </c>
+      <c r="H46">
+        <v>6.44</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3.84</v>
+      </c>
+      <c r="K46">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L46">
+        <v>3.1</v>
+      </c>
+      <c r="M46">
+        <v>0.12074832</v>
+      </c>
+      <c r="N46">
+        <v>2.97925168</v>
+      </c>
+      <c r="O46">
+        <v>0.8937755039999999</v>
+      </c>
+      <c r="P46">
+        <v>2.085476176</v>
+      </c>
+      <c r="Q46">
+        <v>2.825476176</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1948288560841211</v>
+      </c>
+      <c r="T46">
+        <v>1.135387238150015</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.3</v>
+      </c>
+      <c r="W46">
+        <v>0.01134</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>25.67323503962622</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1137550712985579</v>
+      </c>
+      <c r="C47">
+        <v>16.27288033679802</v>
+      </c>
+      <c r="D47">
+        <v>23.31288033679803</v>
+      </c>
+      <c r="E47">
+        <v>-2.876999999999999</v>
+      </c>
+      <c r="F47">
+        <v>7.623000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.583</v>
+      </c>
+      <c r="H47">
+        <v>6.44</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3.84</v>
+      </c>
+      <c r="K47">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
+        <v>0.1234926</v>
+      </c>
+      <c r="N47">
+        <v>2.9765074</v>
+      </c>
+      <c r="O47">
+        <v>0.89295222</v>
+      </c>
+      <c r="P47">
+        <v>2.08355518</v>
+      </c>
+      <c r="Q47">
+        <v>2.82355518</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1975492205428326</v>
+      </c>
+      <c r="T47">
+        <v>1.152035144867757</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.3</v>
+      </c>
+      <c r="W47">
+        <v>0.01134</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>25.10271870541231</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.113416383190008</v>
+      </c>
+      <c r="C48">
+        <v>16.1793165798964</v>
+      </c>
+      <c r="D48">
+        <v>23.3887165798964</v>
+      </c>
+      <c r="E48">
+        <v>-2.707599999999999</v>
+      </c>
+      <c r="F48">
+        <v>7.792400000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.583</v>
+      </c>
+      <c r="H48">
+        <v>6.44</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3.84</v>
+      </c>
+      <c r="K48">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L48">
+        <v>3.1</v>
+      </c>
+      <c r="M48">
+        <v>0.12623688</v>
+      </c>
+      <c r="N48">
+        <v>2.97376312</v>
+      </c>
+      <c r="O48">
+        <v>0.892128936</v>
+      </c>
+      <c r="P48">
+        <v>2.081634184</v>
+      </c>
+      <c r="Q48">
+        <v>2.821634184</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.2003703392407555</v>
+      </c>
+      <c r="T48">
+        <v>1.169299640723193</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.3</v>
+      </c>
+      <c r="W48">
+        <v>0.01134</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>24.55700742920769</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1130776950814581</v>
+      </c>
+      <c r="C49">
+        <v>16.08624782018495</v>
+      </c>
+      <c r="D49">
+        <v>23.46504782018495</v>
+      </c>
+      <c r="E49">
+        <v>-2.538199999999999</v>
+      </c>
+      <c r="F49">
+        <v>7.961800000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.583</v>
+      </c>
+      <c r="H49">
+        <v>6.44</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3.84</v>
+      </c>
+      <c r="K49">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L49">
+        <v>3.1</v>
+      </c>
+      <c r="M49">
+        <v>0.12898116</v>
+      </c>
+      <c r="N49">
+        <v>2.97101884</v>
+      </c>
+      <c r="O49">
+        <v>0.891305652</v>
+      </c>
+      <c r="P49">
+        <v>2.079713188</v>
+      </c>
+      <c r="Q49">
+        <v>2.819713188</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.2032979152480341</v>
+      </c>
+      <c r="T49">
+        <v>1.187215626988269</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.3</v>
+      </c>
+      <c r="W49">
+        <v>0.01134</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>24.03451790943732</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1127390069729082</v>
+      </c>
+      <c r="C50">
+        <v>15.99367891993954</v>
+      </c>
+      <c r="D50">
+        <v>23.54187891993955</v>
+      </c>
+      <c r="E50">
+        <v>-2.3688</v>
+      </c>
+      <c r="F50">
+        <v>8.1312</v>
+      </c>
+      <c r="G50">
+        <v>0.583</v>
+      </c>
+      <c r="H50">
+        <v>6.44</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3.84</v>
+      </c>
+      <c r="K50">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L50">
+        <v>3.1</v>
+      </c>
+      <c r="M50">
+        <v>0.13172544</v>
+      </c>
+      <c r="N50">
+        <v>2.96827456</v>
+      </c>
+      <c r="O50">
+        <v>0.890482368</v>
+      </c>
+      <c r="P50">
+        <v>2.077792192</v>
+      </c>
+      <c r="Q50">
+        <v>2.817792192</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.2063380903325157</v>
+      </c>
+      <c r="T50">
+        <v>1.205820689648155</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.3</v>
+      </c>
+      <c r="W50">
+        <v>0.01134</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>23.53379878632404</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1124003188643583</v>
+      </c>
+      <c r="C51">
+        <v>15.90161480532702</v>
+      </c>
+      <c r="D51">
+        <v>23.61921480532702</v>
+      </c>
+      <c r="E51">
+        <v>-2.199399999999999</v>
+      </c>
+      <c r="F51">
+        <v>8.300600000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.583</v>
+      </c>
+      <c r="H51">
+        <v>6.44</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3.84</v>
+      </c>
+      <c r="K51">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L51">
+        <v>3.1</v>
+      </c>
+      <c r="M51">
+        <v>0.13446972</v>
+      </c>
+      <c r="N51">
+        <v>2.96553028</v>
+      </c>
+      <c r="O51">
+        <v>0.889659084</v>
+      </c>
+      <c r="P51">
+        <v>2.075871196</v>
+      </c>
+      <c r="Q51">
+        <v>2.815871196</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.2094974879693299</v>
+      </c>
+      <c r="T51">
+        <v>1.225155362608428</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.3</v>
+      </c>
+      <c r="W51">
+        <v>0.01134</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>23.05351717843988</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1120616307558083</v>
+      </c>
+      <c r="C52">
+        <v>15.81006046745804</v>
+      </c>
+      <c r="D52">
+        <v>23.69706046745804</v>
+      </c>
+      <c r="E52">
+        <v>-2.029999999999999</v>
+      </c>
+      <c r="F52">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.583</v>
+      </c>
+      <c r="H52">
+        <v>6.44</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3.84</v>
+      </c>
+      <c r="K52">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L52">
+        <v>3.1</v>
+      </c>
+      <c r="M52">
+        <v>0.137214</v>
+      </c>
+      <c r="N52">
+        <v>2.962786</v>
+      </c>
+      <c r="O52">
+        <v>0.8888358</v>
+      </c>
+      <c r="P52">
+        <v>2.0739502</v>
+      </c>
+      <c r="Q52">
+        <v>2.8139502</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2127832615116167</v>
+      </c>
+      <c r="T52">
+        <v>1.245263422487113</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.3</v>
+      </c>
+      <c r="W52">
+        <v>0.01134</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>22.59244683487108</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1117229426472584</v>
+      </c>
+      <c r="C53">
+        <v>15.71902096346095</v>
+      </c>
+      <c r="D53">
+        <v>23.77542096346096</v>
+      </c>
+      <c r="E53">
+        <v>-1.8606</v>
+      </c>
+      <c r="F53">
+        <v>8.6394</v>
+      </c>
+      <c r="G53">
+        <v>0.583</v>
+      </c>
+      <c r="H53">
+        <v>6.44</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3.84</v>
+      </c>
+      <c r="K53">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
+        <v>0.13995828</v>
+      </c>
+      <c r="N53">
+        <v>2.96004172</v>
+      </c>
+      <c r="O53">
+        <v>0.888012516</v>
+      </c>
+      <c r="P53">
+        <v>2.072029204</v>
+      </c>
+      <c r="Q53">
+        <v>2.812029204</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2162031482597111</v>
+      </c>
+      <c r="T53">
+        <v>1.266192219503703</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.3</v>
+      </c>
+      <c r="W53">
+        <v>0.01134</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>22.14945768124615</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1113842545387085</v>
+      </c>
+      <c r="C54">
+        <v>15.62850141757681</v>
+      </c>
+      <c r="D54">
+        <v>23.85430141757681</v>
+      </c>
+      <c r="E54">
+        <v>-1.691199999999998</v>
+      </c>
+      <c r="F54">
+        <v>8.808800000000002</v>
+      </c>
+      <c r="G54">
+        <v>0.583</v>
+      </c>
+      <c r="H54">
+        <v>6.44</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3.84</v>
+      </c>
+      <c r="K54">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>0.14270256</v>
+      </c>
+      <c r="N54">
+        <v>2.95729744</v>
+      </c>
+      <c r="O54">
+        <v>0.887189232</v>
+      </c>
+      <c r="P54">
+        <v>2.070108208</v>
+      </c>
+      <c r="Q54">
+        <v>2.810108208</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2197655302889761</v>
+      </c>
+      <c r="T54">
+        <v>1.287993049729318</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.3</v>
+      </c>
+      <c r="W54">
+        <v>0.01134</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>21.72350657199142</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1110455664301586</v>
+      </c>
+      <c r="C55">
+        <v>15.5385070222765</v>
+      </c>
+      <c r="D55">
+        <v>23.9337070222765</v>
+      </c>
+      <c r="E55">
+        <v>-1.521799999999999</v>
+      </c>
+      <c r="F55">
+        <v>8.978200000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.583</v>
+      </c>
+      <c r="H55">
+        <v>6.44</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3.84</v>
+      </c>
+      <c r="K55">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55">
+        <v>0.14544684</v>
+      </c>
+      <c r="N55">
+        <v>2.95455316</v>
+      </c>
+      <c r="O55">
+        <v>0.886365948</v>
+      </c>
+      <c r="P55">
+        <v>2.068187212</v>
+      </c>
+      <c r="Q55">
+        <v>2.808187212</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.2234795030428906</v>
+      </c>
+      <c r="T55">
+        <v>1.31072157485815</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.3</v>
+      </c>
+      <c r="W55">
+        <v>0.01134</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>21.31362908950101</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1107068783216087</v>
+      </c>
+      <c r="C56">
+        <v>15.44904303940005</v>
+      </c>
+      <c r="D56">
+        <v>24.01364303940005</v>
+      </c>
+      <c r="E56">
+        <v>-1.352399999999999</v>
+      </c>
+      <c r="F56">
+        <v>9.147600000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.583</v>
+      </c>
+      <c r="H56">
+        <v>6.44</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3.84</v>
+      </c>
+      <c r="K56">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
+        <v>0.14819112</v>
+      </c>
+      <c r="N56">
+        <v>2.95180888</v>
+      </c>
+      <c r="O56">
+        <v>0.885542664</v>
+      </c>
+      <c r="P56">
+        <v>2.066266216</v>
+      </c>
+      <c r="Q56">
+        <v>2.806266216</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2273549528730624</v>
+      </c>
+      <c r="T56">
+        <v>1.334438296731715</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.3</v>
+      </c>
+      <c r="W56">
+        <v>0.01134</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>20.91893225451026</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1103681902130588</v>
+      </c>
+      <c r="C57">
+        <v>15.36011480131903</v>
+      </c>
+      <c r="D57">
+        <v>24.09411480131903</v>
+      </c>
+      <c r="E57">
+        <v>-1.182999999999998</v>
+      </c>
+      <c r="F57">
+        <v>9.317000000000002</v>
+      </c>
+      <c r="G57">
+        <v>0.583</v>
+      </c>
+      <c r="H57">
+        <v>6.44</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3.84</v>
+      </c>
+      <c r="K57">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L57">
+        <v>3.1</v>
+      </c>
+      <c r="M57">
+        <v>0.1509354</v>
+      </c>
+      <c r="N57">
+        <v>2.9490646</v>
+      </c>
+      <c r="O57">
+        <v>0.8847193800000001</v>
+      </c>
+      <c r="P57">
+        <v>2.06434522</v>
+      </c>
+      <c r="Q57">
+        <v>2.80434522</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2314026449179084</v>
+      </c>
+      <c r="T57">
+        <v>1.359209095132993</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.3</v>
+      </c>
+      <c r="W57">
+        <v>0.01134</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>20.53858803170098</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1100295021045089</v>
+      </c>
+      <c r="C58">
+        <v>15.27172771212223</v>
+      </c>
+      <c r="D58">
+        <v>24.17512771212223</v>
+      </c>
+      <c r="E58">
+        <v>-1.013599999999999</v>
+      </c>
+      <c r="F58">
+        <v>9.486400000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.583</v>
+      </c>
+      <c r="H58">
+        <v>6.44</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3.84</v>
+      </c>
+      <c r="K58">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>0.15367968</v>
+      </c>
+      <c r="N58">
+        <v>2.94632032</v>
+      </c>
+      <c r="O58">
+        <v>0.883896096</v>
+      </c>
+      <c r="P58">
+        <v>2.062424224</v>
+      </c>
+      <c r="Q58">
+        <v>2.802424224</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2356343229647929</v>
+      </c>
+      <c r="T58">
+        <v>1.385105838916147</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.3</v>
+      </c>
+      <c r="W58">
+        <v>0.01134</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>20.17182753113489</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.109690813995959</v>
+      </c>
+      <c r="C59">
+        <v>15.18388724882547</v>
+      </c>
+      <c r="D59">
+        <v>24.25668724882547</v>
+      </c>
+      <c r="E59">
+        <v>-0.844199999999999</v>
+      </c>
+      <c r="F59">
+        <v>9.655800000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.583</v>
+      </c>
+      <c r="H59">
+        <v>6.44</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>3.84</v>
+      </c>
+      <c r="K59">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L59">
+        <v>3.1</v>
+      </c>
+      <c r="M59">
+        <v>0.15642396</v>
+      </c>
+      <c r="N59">
+        <v>2.94357604</v>
+      </c>
+      <c r="O59">
+        <v>0.883072812</v>
+      </c>
+      <c r="P59">
+        <v>2.060503228</v>
+      </c>
+      <c r="Q59">
+        <v>2.800503228</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2400628232464162</v>
+      </c>
+      <c r="T59">
+        <v>1.412207082410146</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.3</v>
+      </c>
+      <c r="W59">
+        <v>0.01134</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>19.81793582006235</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.109352125887409</v>
+      </c>
+      <c r="C60">
+        <v>15.0965989626059</v>
+      </c>
+      <c r="D60">
+        <v>24.3387989626059</v>
+      </c>
+      <c r="E60">
+        <v>-0.6747999999999994</v>
+      </c>
+      <c r="F60">
+        <v>9.825200000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.583</v>
+      </c>
+      <c r="H60">
+        <v>6.44</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3.84</v>
+      </c>
+      <c r="K60">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L60">
+        <v>3.1</v>
+      </c>
+      <c r="M60">
+        <v>0.15916824</v>
+      </c>
+      <c r="N60">
+        <v>2.94083176</v>
+      </c>
+      <c r="O60">
+        <v>0.882249528</v>
+      </c>
+      <c r="P60">
+        <v>2.058582232</v>
+      </c>
+      <c r="Q60">
+        <v>2.798582232</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.244702204493831</v>
+      </c>
+      <c r="T60">
+        <v>1.440598861308621</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.3</v>
+      </c>
+      <c r="W60">
+        <v>0.01134</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>19.47624727144058</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1090134377788591</v>
+      </c>
+      <c r="C61">
+        <v>15.00986848006155</v>
+      </c>
+      <c r="D61">
+        <v>24.42146848006155</v>
+      </c>
+      <c r="E61">
+        <v>-0.5053999999999998</v>
+      </c>
+      <c r="F61">
+        <v>9.9946</v>
+      </c>
+      <c r="G61">
+        <v>0.583</v>
+      </c>
+      <c r="H61">
+        <v>6.44</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>3.84</v>
+      </c>
+      <c r="K61">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L61">
+        <v>3.1</v>
+      </c>
+      <c r="M61">
+        <v>0.16191252</v>
+      </c>
+      <c r="N61">
+        <v>2.93808748</v>
+      </c>
+      <c r="O61">
+        <v>0.881426244</v>
+      </c>
+      <c r="P61">
+        <v>2.056661236</v>
+      </c>
+      <c r="Q61">
+        <v>2.796661236</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2495678970216076</v>
+      </c>
+      <c r="T61">
+        <v>1.470375605031412</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.3</v>
+      </c>
+      <c r="W61">
+        <v>0.01134</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>19.14614138548396</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1086747496703092</v>
+      </c>
+      <c r="C62">
+        <v>14.92370150449647</v>
+      </c>
+      <c r="D62">
+        <v>24.50470150449647</v>
+      </c>
+      <c r="E62">
+        <v>-0.3360000000000003</v>
+      </c>
+      <c r="F62">
+        <v>10.164</v>
+      </c>
+      <c r="G62">
+        <v>0.583</v>
+      </c>
+      <c r="H62">
+        <v>6.44</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>3.84</v>
+      </c>
+      <c r="K62">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L62">
+        <v>3.1</v>
+      </c>
+      <c r="M62">
+        <v>0.1646568</v>
+      </c>
+      <c r="N62">
+        <v>2.9353432</v>
+      </c>
+      <c r="O62">
+        <v>0.88060296</v>
+      </c>
+      <c r="P62">
+        <v>2.05474024</v>
+      </c>
+      <c r="Q62">
+        <v>2.79474024</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2546768741757731</v>
+      </c>
+      <c r="T62">
+        <v>1.501641185940342</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.3</v>
+      </c>
+      <c r="W62">
+        <v>0.01134</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>18.82703902905923</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1083360615617593</v>
+      </c>
+      <c r="C63">
+        <v>14.83810381723245</v>
+      </c>
+      <c r="D63">
+        <v>24.58850381723245</v>
+      </c>
+      <c r="E63">
+        <v>-0.166599999999999</v>
+      </c>
+      <c r="F63">
+        <v>10.3334</v>
+      </c>
+      <c r="G63">
+        <v>0.583</v>
+      </c>
+      <c r="H63">
+        <v>6.44</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3.84</v>
+      </c>
+      <c r="K63">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L63">
+        <v>3.1</v>
+      </c>
+      <c r="M63">
+        <v>0.16740108</v>
+      </c>
+      <c r="N63">
+        <v>2.93259892</v>
+      </c>
+      <c r="O63">
+        <v>0.8797796760000001</v>
+      </c>
+      <c r="P63">
+        <v>2.052819244</v>
+      </c>
+      <c r="Q63">
+        <v>2.792819244</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2600478501583571</v>
+      </c>
+      <c r="T63">
+        <v>1.534510129972807</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.3</v>
+      </c>
+      <c r="W63">
+        <v>0.01134</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>18.51839904497629</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1079973734532094</v>
+      </c>
+      <c r="C64">
+        <v>14.75308127894756</v>
+      </c>
+      <c r="D64">
+        <v>24.67288127894756</v>
+      </c>
+      <c r="E64">
+        <v>0.00280000000000058</v>
+      </c>
+      <c r="F64">
+        <v>10.5028</v>
+      </c>
+      <c r="G64">
+        <v>0.583</v>
+      </c>
+      <c r="H64">
+        <v>6.44</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3.84</v>
+      </c>
+      <c r="K64">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L64">
+        <v>3.1</v>
+      </c>
+      <c r="M64">
+        <v>0.17014536</v>
+      </c>
+      <c r="N64">
+        <v>2.92985464</v>
+      </c>
+      <c r="O64">
+        <v>0.8789563920000001</v>
+      </c>
+      <c r="P64">
+        <v>2.050898248</v>
+      </c>
+      <c r="Q64">
+        <v>2.790898248</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2657015090873932</v>
+      </c>
+      <c r="T64">
+        <v>1.569109018428034</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.3</v>
+      </c>
+      <c r="W64">
+        <v>0.01134</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>18.21971518941216</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1076586853446595</v>
+      </c>
+      <c r="C65">
+        <v>14.6686398310425</v>
+      </c>
+      <c r="D65">
+        <v>24.7578398310425</v>
+      </c>
+      <c r="E65">
+        <v>0.1722000000000001</v>
+      </c>
+      <c r="F65">
+        <v>10.6722</v>
+      </c>
+      <c r="G65">
+        <v>0.583</v>
+      </c>
+      <c r="H65">
+        <v>6.44</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>3.84</v>
+      </c>
+      <c r="K65">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L65">
+        <v>3.1</v>
+      </c>
+      <c r="M65">
+        <v>0.17288964</v>
+      </c>
+      <c r="N65">
+        <v>2.92711036</v>
+      </c>
+      <c r="O65">
+        <v>0.878133108</v>
+      </c>
+      <c r="P65">
+        <v>2.048977252</v>
+      </c>
+      <c r="Q65">
+        <v>2.788977252</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2716607712017824</v>
+      </c>
+      <c r="T65">
+        <v>1.60557811707003</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.3</v>
+      </c>
+      <c r="W65">
+        <v>0.01134</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>17.93051336100879</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1073199972361096</v>
+      </c>
+      <c r="C66">
+        <v>14.58478549703511</v>
+      </c>
+      <c r="D66">
+        <v>24.84338549703511</v>
+      </c>
+      <c r="E66">
+        <v>0.3416000000000015</v>
+      </c>
+      <c r="F66">
+        <v>10.8416</v>
+      </c>
+      <c r="G66">
+        <v>0.583</v>
+      </c>
+      <c r="H66">
+        <v>6.44</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3.84</v>
+      </c>
+      <c r="K66">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L66">
+        <v>3.1</v>
+      </c>
+      <c r="M66">
+        <v>0.17563392</v>
+      </c>
+      <c r="N66">
+        <v>2.92436608</v>
+      </c>
+      <c r="O66">
+        <v>0.877309824</v>
+      </c>
+      <c r="P66">
+        <v>2.047056256</v>
+      </c>
+      <c r="Q66">
+        <v>2.787056256</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2779511034336377</v>
+      </c>
+      <c r="T66">
+        <v>1.644073276747692</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.3</v>
+      </c>
+      <c r="W66">
+        <v>0.01134</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>17.65034908974303</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1069813091275596</v>
+      </c>
+      <c r="C67">
+        <v>14.5015243839841</v>
+      </c>
+      <c r="D67">
+        <v>24.9295243839841</v>
+      </c>
+      <c r="E67">
+        <v>0.511000000000001</v>
+      </c>
+      <c r="F67">
+        <v>11.011</v>
+      </c>
+      <c r="G67">
+        <v>0.583</v>
+      </c>
+      <c r="H67">
+        <v>6.44</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3.84</v>
+      </c>
+      <c r="K67">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L67">
+        <v>3.1</v>
+      </c>
+      <c r="M67">
+        <v>0.1783782</v>
+      </c>
+      <c r="N67">
+        <v>2.9216218</v>
+      </c>
+      <c r="O67">
+        <v>0.87648654</v>
+      </c>
+      <c r="P67">
+        <v>2.04513526</v>
+      </c>
+      <c r="Q67">
+        <v>2.78513526</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.284600883221599</v>
+      </c>
+      <c r="T67">
+        <v>1.684768159835506</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.3</v>
+      </c>
+      <c r="W67">
+        <v>0.01134</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>17.37880525759314</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1066426210190097</v>
+      </c>
+      <c r="C68">
+        <v>14.41886268394226</v>
+      </c>
+      <c r="D68">
+        <v>25.01626268394226</v>
+      </c>
+      <c r="E68">
+        <v>0.6804000000000006</v>
+      </c>
+      <c r="F68">
+        <v>11.1804</v>
+      </c>
+      <c r="G68">
+        <v>0.583</v>
+      </c>
+      <c r="H68">
+        <v>6.44</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>3.84</v>
+      </c>
+      <c r="K68">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L68">
+        <v>3.1</v>
+      </c>
+      <c r="M68">
+        <v>0.18112248</v>
+      </c>
+      <c r="N68">
+        <v>2.91887752</v>
+      </c>
+      <c r="O68">
+        <v>0.8756632560000001</v>
+      </c>
+      <c r="P68">
+        <v>2.043214264</v>
+      </c>
+      <c r="Q68">
+        <v>2.783214264</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2916418265264993</v>
+      </c>
+      <c r="T68">
+        <v>1.727856859575545</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.3</v>
+      </c>
+      <c r="W68">
+        <v>0.01134</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>17.11549002641748</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1063039329104598</v>
+      </c>
+      <c r="C69">
+        <v>14.33680667544034</v>
+      </c>
+      <c r="D69">
+        <v>25.10360667544035</v>
+      </c>
+      <c r="E69">
+        <v>0.8498000000000019</v>
+      </c>
+      <c r="F69">
+        <v>11.3498</v>
+      </c>
+      <c r="G69">
+        <v>0.583</v>
+      </c>
+      <c r="H69">
+        <v>6.44</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>3.84</v>
+      </c>
+      <c r="K69">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L69">
+        <v>3.1</v>
+      </c>
+      <c r="M69">
+        <v>0.18386676</v>
+      </c>
+      <c r="N69">
+        <v>2.91613324</v>
+      </c>
+      <c r="O69">
+        <v>0.8748399720000001</v>
+      </c>
+      <c r="P69">
+        <v>2.041293268</v>
+      </c>
+      <c r="Q69">
+        <v>2.781293268</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2991094936680601</v>
+      </c>
+      <c r="T69">
+        <v>1.773556995663464</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.3</v>
+      </c>
+      <c r="W69">
+        <v>0.01134</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>16.86003495139633</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1059652448019099</v>
+      </c>
+      <c r="C70">
+        <v>14.25536272500199</v>
+      </c>
+      <c r="D70">
+        <v>25.19156272500199</v>
+      </c>
+      <c r="E70">
+        <v>1.019200000000001</v>
+      </c>
+      <c r="F70">
+        <v>11.5192</v>
+      </c>
+      <c r="G70">
+        <v>0.583</v>
+      </c>
+      <c r="H70">
+        <v>6.44</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3.84</v>
+      </c>
+      <c r="K70">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
+        <v>0.18661104</v>
+      </c>
+      <c r="N70">
+        <v>2.91338896</v>
+      </c>
+      <c r="O70">
+        <v>0.8740166880000001</v>
+      </c>
+      <c r="P70">
+        <v>2.039372272</v>
+      </c>
+      <c r="Q70">
+        <v>2.779372272</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3070438900059685</v>
+      </c>
+      <c r="T70">
+        <v>1.822113390256879</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.3</v>
+      </c>
+      <c r="W70">
+        <v>0.01134</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>16.61209326093461</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.10562655669336</v>
+      </c>
+      <c r="C71">
+        <v>14.17453728869067</v>
+      </c>
+      <c r="D71">
+        <v>25.28013728869067</v>
+      </c>
+      <c r="E71">
+        <v>1.188600000000001</v>
+      </c>
+      <c r="F71">
+        <v>11.6886</v>
+      </c>
+      <c r="G71">
+        <v>0.583</v>
+      </c>
+      <c r="H71">
+        <v>6.44</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3.84</v>
+      </c>
+      <c r="K71">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
+        <v>0.18935532</v>
+      </c>
+      <c r="N71">
+        <v>2.91064468</v>
+      </c>
+      <c r="O71">
+        <v>0.8731934039999999</v>
+      </c>
+      <c r="P71">
+        <v>2.037451276</v>
+      </c>
+      <c r="Q71">
+        <v>2.777451276</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3154901828818065</v>
+      </c>
+      <c r="T71">
+        <v>1.873802455469224</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.3</v>
+      </c>
+      <c r="W71">
+        <v>0.01134</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>16.37133828613846</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1052878685848101</v>
+      </c>
+      <c r="C72">
+        <v>14.09433691368937</v>
+      </c>
+      <c r="D72">
+        <v>25.36933691368937</v>
+      </c>
+      <c r="E72">
+        <v>1.358000000000002</v>
+      </c>
+      <c r="F72">
+        <v>11.858</v>
+      </c>
+      <c r="G72">
+        <v>0.583</v>
+      </c>
+      <c r="H72">
+        <v>6.44</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>3.84</v>
+      </c>
+      <c r="K72">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
+        <v>0.1920996</v>
+      </c>
+      <c r="N72">
+        <v>2.9079004</v>
+      </c>
+      <c r="O72">
+        <v>0.8723701199999999</v>
+      </c>
+      <c r="P72">
+        <v>2.03553028</v>
+      </c>
+      <c r="Q72">
+        <v>2.77553028</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3244995619493671</v>
+      </c>
+      <c r="T72">
+        <v>1.928937458362391</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.3</v>
+      </c>
+      <c r="W72">
+        <v>0.01134</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>16.13746202490791</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1049491804762602</v>
+      </c>
+      <c r="C73">
+        <v>14.0147682399138</v>
+      </c>
+      <c r="D73">
+        <v>25.4591682399138</v>
+      </c>
+      <c r="E73">
+        <v>1.5274</v>
+      </c>
+      <c r="F73">
+        <v>12.0274</v>
+      </c>
+      <c r="G73">
+        <v>0.583</v>
+      </c>
+      <c r="H73">
+        <v>6.44</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3.84</v>
+      </c>
+      <c r="K73">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L73">
+        <v>3.1</v>
+      </c>
+      <c r="M73">
+        <v>0.19484388</v>
+      </c>
+      <c r="N73">
+        <v>2.90515612</v>
+      </c>
+      <c r="O73">
+        <v>0.8715468359999999</v>
+      </c>
+      <c r="P73">
+        <v>2.033609284</v>
+      </c>
+      <c r="Q73">
+        <v>2.773609284</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3341302775043454</v>
+      </c>
+      <c r="T73">
+        <v>1.987874875248191</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.3</v>
+      </c>
+      <c r="W73">
+        <v>0.01134</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>15.910173827374</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1046104923677103</v>
+      </c>
+      <c r="C74">
+        <v>13.93583800166012</v>
+      </c>
+      <c r="D74">
+        <v>25.54963800166012</v>
+      </c>
+      <c r="E74">
+        <v>1.6968</v>
+      </c>
+      <c r="F74">
+        <v>12.1968</v>
+      </c>
+      <c r="G74">
+        <v>0.583</v>
+      </c>
+      <c r="H74">
+        <v>6.44</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3.84</v>
+      </c>
+      <c r="K74">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>0.19758816</v>
+      </c>
+      <c r="N74">
+        <v>2.90241184</v>
+      </c>
+      <c r="O74">
+        <v>0.870723552</v>
+      </c>
+      <c r="P74">
+        <v>2.031688288</v>
+      </c>
+      <c r="Q74">
+        <v>2.771688288</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.344448901313251</v>
+      </c>
+      <c r="T74">
+        <v>2.051022107625833</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.3</v>
+      </c>
+      <c r="W74">
+        <v>0.01134</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>15.68919919088269</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1042718042591604</v>
+      </c>
+      <c r="C75">
+        <v>13.85755302928772</v>
+      </c>
+      <c r="D75">
+        <v>25.64075302928772</v>
+      </c>
+      <c r="E75">
+        <v>1.866200000000001</v>
+      </c>
+      <c r="F75">
+        <v>12.3662</v>
+      </c>
+      <c r="G75">
+        <v>0.583</v>
+      </c>
+      <c r="H75">
+        <v>6.44</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3.84</v>
+      </c>
+      <c r="K75">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L75">
+        <v>3.1</v>
+      </c>
+      <c r="M75">
+        <v>0.20033244</v>
+      </c>
+      <c r="N75">
+        <v>2.89966756</v>
+      </c>
+      <c r="O75">
+        <v>0.869900268</v>
+      </c>
+      <c r="P75">
+        <v>2.029767292</v>
+      </c>
+      <c r="Q75">
+        <v>2.769767292</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3555318676265199</v>
+      </c>
+      <c r="T75">
+        <v>2.11884691277219</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.3</v>
+      </c>
+      <c r="W75">
+        <v>0.01134</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>15.47427865402129</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1039331161506104</v>
+      </c>
+      <c r="C76">
+        <v>13.77992025093838</v>
+      </c>
+      <c r="D76">
+        <v>25.73252025093838</v>
+      </c>
+      <c r="E76">
+        <v>2.035600000000001</v>
+      </c>
+      <c r="F76">
+        <v>12.5356</v>
+      </c>
+      <c r="G76">
+        <v>0.583</v>
+      </c>
+      <c r="H76">
+        <v>6.44</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3.84</v>
+      </c>
+      <c r="K76">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L76">
+        <v>3.1</v>
+      </c>
+      <c r="M76">
+        <v>0.20307672</v>
+      </c>
+      <c r="N76">
+        <v>2.89692328</v>
+      </c>
+      <c r="O76">
+        <v>0.869076984</v>
+      </c>
+      <c r="P76">
+        <v>2.027846296</v>
+      </c>
+      <c r="Q76">
+        <v>2.767846296</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3674673698100401</v>
+      </c>
+      <c r="T76">
+        <v>2.191889010622113</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.3</v>
+      </c>
+      <c r="W76">
+        <v>0.01134</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>15.2651667803183</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1035944280420605</v>
+      </c>
+      <c r="C77">
+        <v>13.70294669429222</v>
+      </c>
+      <c r="D77">
+        <v>25.82494669429222</v>
+      </c>
+      <c r="E77">
+        <v>2.205000000000002</v>
+      </c>
+      <c r="F77">
+        <v>12.705</v>
+      </c>
+      <c r="G77">
+        <v>0.583</v>
+      </c>
+      <c r="H77">
+        <v>6.44</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3.84</v>
+      </c>
+      <c r="K77">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>0.205821</v>
+      </c>
+      <c r="N77">
+        <v>2.894179</v>
+      </c>
+      <c r="O77">
+        <v>0.8682537</v>
+      </c>
+      <c r="P77">
+        <v>2.0259253</v>
+      </c>
+      <c r="Q77">
+        <v>2.7659253</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3803577121682421</v>
+      </c>
+      <c r="T77">
+        <v>2.270774476300029</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.3</v>
+      </c>
+      <c r="W77">
+        <v>0.01134</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>15.06163122324738</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1032557399335106</v>
+      </c>
+      <c r="C78">
+        <v>13.62663948836187</v>
+      </c>
+      <c r="D78">
+        <v>25.91803948836187</v>
+      </c>
+      <c r="E78">
+        <v>2.374400000000001</v>
+      </c>
+      <c r="F78">
+        <v>12.8744</v>
+      </c>
+      <c r="G78">
+        <v>0.583</v>
+      </c>
+      <c r="H78">
+        <v>6.44</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3.84</v>
+      </c>
+      <c r="K78">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>0.20856528</v>
+      </c>
+      <c r="N78">
+        <v>2.89143472</v>
+      </c>
+      <c r="O78">
+        <v>0.8674304159999999</v>
+      </c>
+      <c r="P78">
+        <v>2.024004304</v>
+      </c>
+      <c r="Q78">
+        <v>2.764004304</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.394322249722961</v>
+      </c>
+      <c r="T78">
+        <v>2.35623373078444</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.3</v>
+      </c>
+      <c r="W78">
+        <v>0.01134</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>14.86345186504676</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1029170518249607</v>
+      </c>
+      <c r="C79">
+        <v>13.55100586532541</v>
+      </c>
+      <c r="D79">
+        <v>26.01180586532542</v>
+      </c>
+      <c r="E79">
+        <v>2.543800000000001</v>
+      </c>
+      <c r="F79">
+        <v>13.0438</v>
+      </c>
+      <c r="G79">
+        <v>0.583</v>
+      </c>
+      <c r="H79">
+        <v>6.44</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3.84</v>
+      </c>
+      <c r="K79">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L79">
+        <v>3.1</v>
+      </c>
+      <c r="M79">
+        <v>0.21130956</v>
+      </c>
+      <c r="N79">
+        <v>2.88869044</v>
+      </c>
+      <c r="O79">
+        <v>0.8666071319999999</v>
+      </c>
+      <c r="P79">
+        <v>2.022083308</v>
+      </c>
+      <c r="Q79">
+        <v>2.762083308</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4095010948911336</v>
+      </c>
+      <c r="T79">
+        <v>2.449124224789233</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.3</v>
+      </c>
+      <c r="W79">
+        <v>0.01134</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>14.67042002264356</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1025783637164108</v>
+      </c>
+      <c r="C80">
+        <v>13.47605316239935</v>
+      </c>
+      <c r="D80">
+        <v>26.10625316239936</v>
+      </c>
+      <c r="E80">
+        <v>2.713200000000002</v>
+      </c>
+      <c r="F80">
+        <v>13.2132</v>
+      </c>
+      <c r="G80">
+        <v>0.583</v>
+      </c>
+      <c r="H80">
+        <v>6.44</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>3.84</v>
+      </c>
+      <c r="K80">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L80">
+        <v>3.1</v>
+      </c>
+      <c r="M80">
+        <v>0.21405384</v>
+      </c>
+      <c r="N80">
+        <v>2.88594616</v>
+      </c>
+      <c r="O80">
+        <v>0.865783848</v>
+      </c>
+      <c r="P80">
+        <v>2.020162312</v>
+      </c>
+      <c r="Q80">
+        <v>2.760162312</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4260598350745946</v>
+      </c>
+      <c r="T80">
+        <v>2.550459309158098</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.3</v>
+      </c>
+      <c r="W80">
+        <v>0.01134</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>14.48233771466094</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1022396756078609</v>
+      </c>
+      <c r="C81">
+        <v>13.40178882375247</v>
+      </c>
+      <c r="D81">
+        <v>26.20138882375247</v>
+      </c>
+      <c r="E81">
+        <v>2.882600000000002</v>
+      </c>
+      <c r="F81">
+        <v>13.3826</v>
+      </c>
+      <c r="G81">
+        <v>0.583</v>
+      </c>
+      <c r="H81">
+        <v>6.44</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3.84</v>
+      </c>
+      <c r="K81">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L81">
+        <v>3.1</v>
+      </c>
+      <c r="M81">
+        <v>0.21679812</v>
+      </c>
+      <c r="N81">
+        <v>2.88320188</v>
+      </c>
+      <c r="O81">
+        <v>0.864960564</v>
+      </c>
+      <c r="P81">
+        <v>2.018241316</v>
+      </c>
+      <c r="Q81">
+        <v>2.758241316</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.444195598132671</v>
+      </c>
+      <c r="T81">
+        <v>2.661445353943046</v>
+      </c>
+      <c r="U81">
+        <v>0.0162</v>
+      </c>
+      <c r="V81">
+        <v>0.3</v>
+      </c>
+      <c r="W81">
+        <v>0.01134</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>14.29901698409562</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.101900987499311</v>
+      </c>
+      <c r="C82">
+        <v>13.32822040246176</v>
+      </c>
+      <c r="D82">
+        <v>26.29722040246176</v>
+      </c>
+      <c r="E82">
+        <v>3.052000000000001</v>
+      </c>
+      <c r="F82">
+        <v>13.552</v>
+      </c>
+      <c r="G82">
+        <v>0.583</v>
+      </c>
+      <c r="H82">
+        <v>6.44</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3.84</v>
+      </c>
+      <c r="K82">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L82">
+        <v>3.1</v>
+      </c>
+      <c r="M82">
+        <v>0.2195424</v>
+      </c>
+      <c r="N82">
+        <v>2.8804576</v>
+      </c>
+      <c r="O82">
+        <v>0.86413728</v>
+      </c>
+      <c r="P82">
+        <v>2.01632032</v>
+      </c>
+      <c r="Q82">
+        <v>2.75632032</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4641449374965549</v>
+      </c>
+      <c r="T82">
+        <v>2.783530003206488</v>
+      </c>
+      <c r="U82">
+        <v>0.0162</v>
+      </c>
+      <c r="V82">
+        <v>0.3</v>
+      </c>
+      <c r="W82">
+        <v>0.01134</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>14.12027927179442</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1015622993907611</v>
+      </c>
+      <c r="C83">
+        <v>13.25535556251134</v>
+      </c>
+      <c r="D83">
+        <v>26.39375556251134</v>
+      </c>
+      <c r="E83">
+        <v>3.221400000000003</v>
+      </c>
+      <c r="F83">
+        <v>13.7214</v>
+      </c>
+      <c r="G83">
+        <v>0.583</v>
+      </c>
+      <c r="H83">
+        <v>6.44</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>3.84</v>
+      </c>
+      <c r="K83">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L83">
+        <v>3.1</v>
+      </c>
+      <c r="M83">
+        <v>0.22228668</v>
+      </c>
+      <c r="N83">
+        <v>2.87771332</v>
+      </c>
+      <c r="O83">
+        <v>0.863313996</v>
+      </c>
+      <c r="P83">
+        <v>2.014399324</v>
+      </c>
+      <c r="Q83">
+        <v>2.754399324</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4861942073197952</v>
+      </c>
+      <c r="T83">
+        <v>2.918465668181872</v>
+      </c>
+      <c r="U83">
+        <v>0.0162</v>
+      </c>
+      <c r="V83">
+        <v>0.3</v>
+      </c>
+      <c r="W83">
+        <v>0.01134</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>13.94595483634017</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1012236112822111</v>
+      </c>
+      <c r="C84">
+        <v>13.18320208083569</v>
+      </c>
+      <c r="D84">
+        <v>26.49100208083569</v>
+      </c>
+      <c r="E84">
+        <v>3.390800000000002</v>
+      </c>
+      <c r="F84">
+        <v>13.8908</v>
+      </c>
+      <c r="G84">
+        <v>0.583</v>
+      </c>
+      <c r="H84">
+        <v>6.44</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3.84</v>
+      </c>
+      <c r="K84">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>0.22503096</v>
+      </c>
+      <c r="N84">
+        <v>2.87496904</v>
+      </c>
+      <c r="O84">
+        <v>0.8624907119999999</v>
+      </c>
+      <c r="P84">
+        <v>2.012478328</v>
+      </c>
+      <c r="Q84">
+        <v>2.752478328</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5106933960122844</v>
+      </c>
+      <c r="T84">
+        <v>3.068394184821188</v>
+      </c>
+      <c r="U84">
+        <v>0.0162</v>
+      </c>
+      <c r="V84">
+        <v>0.3</v>
+      </c>
+      <c r="W84">
+        <v>0.01134</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>13.7758822163848</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1018145231736612</v>
+      </c>
+      <c r="C85">
+        <v>12.84459785636371</v>
+      </c>
+      <c r="D85">
+        <v>26.32179785636371</v>
+      </c>
+      <c r="E85">
+        <v>3.560200000000002</v>
+      </c>
+      <c r="F85">
+        <v>14.0602</v>
+      </c>
+      <c r="G85">
+        <v>0.583</v>
+      </c>
+      <c r="H85">
+        <v>6.44</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>3.84</v>
+      </c>
+      <c r="K85">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L85">
+        <v>3.1</v>
+      </c>
+      <c r="M85">
+        <v>0.25027156</v>
+      </c>
+      <c r="N85">
+        <v>2.84972844</v>
+      </c>
+      <c r="O85">
+        <v>0.854918532</v>
+      </c>
+      <c r="P85">
+        <v>1.994809908</v>
+      </c>
+      <c r="Q85">
+        <v>2.734809908</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5380748421980075</v>
+      </c>
+      <c r="T85">
+        <v>3.235961350476893</v>
+      </c>
+      <c r="U85">
+        <v>0.0178</v>
+      </c>
+      <c r="V85">
+        <v>0.3</v>
+      </c>
+      <c r="W85">
+        <v>0.01246</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>12.38654523909948</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1014870350651113</v>
+      </c>
+      <c r="C86">
+        <v>12.76870423486395</v>
+      </c>
+      <c r="D86">
+        <v>26.41530423486395</v>
+      </c>
+      <c r="E86">
+        <v>3.729600000000001</v>
+      </c>
+      <c r="F86">
+        <v>14.2296</v>
+      </c>
+      <c r="G86">
+        <v>0.583</v>
+      </c>
+      <c r="H86">
+        <v>6.44</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>3.84</v>
+      </c>
+      <c r="K86">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>0.25328688</v>
+      </c>
+      <c r="N86">
+        <v>2.84671312</v>
+      </c>
+      <c r="O86">
+        <v>0.854013936</v>
+      </c>
+      <c r="P86">
+        <v>1.992699184</v>
+      </c>
+      <c r="Q86">
+        <v>2.732699184</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5688789691569457</v>
+      </c>
+      <c r="T86">
+        <v>3.42447441183956</v>
+      </c>
+      <c r="U86">
+        <v>0.0178</v>
+      </c>
+      <c r="V86">
+        <v>0.3</v>
+      </c>
+      <c r="W86">
+        <v>0.01246</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>12.23908636720544</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1011595469565614</v>
+      </c>
+      <c r="C87">
+        <v>12.69347733180657</v>
+      </c>
+      <c r="D87">
+        <v>26.50947733180657</v>
+      </c>
+      <c r="E87">
+        <v>3.899000000000001</v>
+      </c>
+      <c r="F87">
+        <v>14.399</v>
+      </c>
+      <c r="G87">
+        <v>0.583</v>
+      </c>
+      <c r="H87">
+        <v>6.44</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>3.84</v>
+      </c>
+      <c r="K87">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
+        <v>0.2563022</v>
+      </c>
+      <c r="N87">
+        <v>2.8436978</v>
+      </c>
+      <c r="O87">
+        <v>0.85310934</v>
+      </c>
+      <c r="P87">
+        <v>1.99058846</v>
+      </c>
+      <c r="Q87">
+        <v>2.73058846</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6037903130437428</v>
+      </c>
+      <c r="T87">
+        <v>3.638122548050585</v>
+      </c>
+      <c r="U87">
+        <v>0.0178</v>
+      </c>
+      <c r="V87">
+        <v>0.3</v>
+      </c>
+      <c r="W87">
+        <v>0.01246</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>12.09509711582655</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1008320588480115</v>
+      </c>
+      <c r="C88">
+        <v>12.6189243034502</v>
+      </c>
+      <c r="D88">
+        <v>26.60432430345021</v>
+      </c>
+      <c r="E88">
+        <v>4.0684</v>
+      </c>
+      <c r="F88">
+        <v>14.5684</v>
+      </c>
+      <c r="G88">
+        <v>0.583</v>
+      </c>
+      <c r="H88">
+        <v>6.44</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>3.84</v>
+      </c>
+      <c r="K88">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88">
+        <v>0.25931752</v>
+      </c>
+      <c r="N88">
+        <v>2.84068248</v>
+      </c>
+      <c r="O88">
+        <v>0.8522047439999999</v>
+      </c>
+      <c r="P88">
+        <v>1.988477736</v>
+      </c>
+      <c r="Q88">
+        <v>2.728477736</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6436889917715107</v>
+      </c>
+      <c r="T88">
+        <v>3.882291846577469</v>
+      </c>
+      <c r="U88">
+        <v>0.0178</v>
+      </c>
+      <c r="V88">
+        <v>0.3</v>
+      </c>
+      <c r="W88">
+        <v>0.01246</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>11.95445645168903</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1005045707394616</v>
+      </c>
+      <c r="C89">
+        <v>12.54505240883731</v>
+      </c>
+      <c r="D89">
+        <v>26.69985240883731</v>
+      </c>
+      <c r="E89">
+        <v>4.237800000000002</v>
+      </c>
+      <c r="F89">
+        <v>14.7378</v>
+      </c>
+      <c r="G89">
+        <v>0.583</v>
+      </c>
+      <c r="H89">
+        <v>6.44</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>3.84</v>
+      </c>
+      <c r="K89">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>0.26233284</v>
+      </c>
+      <c r="N89">
+        <v>2.83766716</v>
+      </c>
+      <c r="O89">
+        <v>0.851300148</v>
+      </c>
+      <c r="P89">
+        <v>1.986367012</v>
+      </c>
+      <c r="Q89">
+        <v>2.726367012</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6897259287650892</v>
+      </c>
+      <c r="T89">
+        <v>4.16402565257003</v>
+      </c>
+      <c r="U89">
+        <v>0.0178</v>
+      </c>
+      <c r="V89">
+        <v>0.3</v>
+      </c>
+      <c r="W89">
+        <v>0.01246</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>11.81704890626732</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1001770826309117</v>
+      </c>
+      <c r="C90">
+        <v>12.47186901164623</v>
+      </c>
+      <c r="D90">
+        <v>26.79606901164623</v>
+      </c>
+      <c r="E90">
+        <v>4.407200000000001</v>
+      </c>
+      <c r="F90">
+        <v>14.9072</v>
+      </c>
+      <c r="G90">
+        <v>0.583</v>
+      </c>
+      <c r="H90">
+        <v>6.44</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>3.84</v>
+      </c>
+      <c r="K90">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>0.26534816</v>
+      </c>
+      <c r="N90">
+        <v>2.83465184</v>
+      </c>
+      <c r="O90">
+        <v>0.8503955520000001</v>
+      </c>
+      <c r="P90">
+        <v>1.984256288</v>
+      </c>
+      <c r="Q90">
+        <v>2.724256288</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7434356885909308</v>
+      </c>
+      <c r="T90">
+        <v>4.492715092894683</v>
+      </c>
+      <c r="U90">
+        <v>0.0178</v>
+      </c>
+      <c r="V90">
+        <v>0.3</v>
+      </c>
+      <c r="W90">
+        <v>0.01246</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>11.68276425960519</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.09984959452236178</v>
+      </c>
+      <c r="C91">
+        <v>12.39938158208331</v>
+      </c>
+      <c r="D91">
+        <v>26.89298158208331</v>
+      </c>
+      <c r="E91">
+        <v>4.576600000000001</v>
+      </c>
+      <c r="F91">
+        <v>15.0766</v>
+      </c>
+      <c r="G91">
+        <v>0.583</v>
+      </c>
+      <c r="H91">
+        <v>6.44</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>3.84</v>
+      </c>
+      <c r="K91">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L91">
+        <v>3.1</v>
+      </c>
+      <c r="M91">
+        <v>0.26836348</v>
+      </c>
+      <c r="N91">
+        <v>2.83163652</v>
+      </c>
+      <c r="O91">
+        <v>0.849490956</v>
+      </c>
+      <c r="P91">
+        <v>1.982145564</v>
+      </c>
+      <c r="Q91">
+        <v>2.722145564</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.806910859294198</v>
+      </c>
+      <c r="T91">
+        <v>4.881166249642</v>
+      </c>
+      <c r="U91">
+        <v>0.0178</v>
+      </c>
+      <c r="V91">
+        <v>0.3</v>
+      </c>
+      <c r="W91">
+        <v>0.01246</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>11.55149724545232</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.09952210641381186</v>
+      </c>
+      <c r="C92">
+        <v>12.32759769881626</v>
+      </c>
+      <c r="D92">
+        <v>26.99059769881627</v>
+      </c>
+      <c r="E92">
+        <v>4.746000000000002</v>
+      </c>
+      <c r="F92">
+        <v>15.246</v>
+      </c>
+      <c r="G92">
+        <v>0.583</v>
+      </c>
+      <c r="H92">
+        <v>6.44</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>3.84</v>
+      </c>
+      <c r="K92">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L92">
+        <v>3.1</v>
+      </c>
+      <c r="M92">
+        <v>0.2713788</v>
+      </c>
+      <c r="N92">
+        <v>2.8286212</v>
+      </c>
+      <c r="O92">
+        <v>0.84858636</v>
+      </c>
+      <c r="P92">
+        <v>1.98003484</v>
+      </c>
+      <c r="Q92">
+        <v>2.72003484</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8830810641381188</v>
+      </c>
+      <c r="T92">
+        <v>5.347307637738781</v>
+      </c>
+      <c r="U92">
+        <v>0.0178</v>
+      </c>
+      <c r="V92">
+        <v>0.3</v>
+      </c>
+      <c r="W92">
+        <v>0.01246</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>11.42314727605841</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.09919461830526194</v>
+      </c>
+      <c r="C93">
+        <v>12.25652505094986</v>
+      </c>
+      <c r="D93">
+        <v>27.08892505094987</v>
+      </c>
+      <c r="E93">
+        <v>4.915400000000002</v>
+      </c>
+      <c r="F93">
+        <v>15.4154</v>
+      </c>
+      <c r="G93">
+        <v>0.583</v>
+      </c>
+      <c r="H93">
+        <v>6.44</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>3.84</v>
+      </c>
+      <c r="K93">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L93">
+        <v>3.1</v>
+      </c>
+      <c r="M93">
+        <v>0.27439412</v>
+      </c>
+      <c r="N93">
+        <v>2.82560588</v>
+      </c>
+      <c r="O93">
+        <v>0.8476817639999999</v>
+      </c>
+      <c r="P93">
+        <v>1.977924116</v>
+      </c>
+      <c r="Q93">
+        <v>2.717924116</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9761779811695774</v>
+      </c>
+      <c r="T93">
+        <v>5.917036000968179</v>
+      </c>
+      <c r="U93">
+        <v>0.0178</v>
+      </c>
+      <c r="V93">
+        <v>0.3</v>
+      </c>
+      <c r="W93">
+        <v>0.01246</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>11.29761818511271</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.09886713019671206</v>
+      </c>
+      <c r="C94">
+        <v>12.18617144004486</v>
+      </c>
+      <c r="D94">
+        <v>27.18797144004486</v>
+      </c>
+      <c r="E94">
+        <v>5.084800000000001</v>
+      </c>
+      <c r="F94">
+        <v>15.5848</v>
+      </c>
+      <c r="G94">
+        <v>0.583</v>
+      </c>
+      <c r="H94">
+        <v>6.44</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>3.84</v>
+      </c>
+      <c r="K94">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>0.27740944</v>
+      </c>
+      <c r="N94">
+        <v>2.82259056</v>
+      </c>
+      <c r="O94">
+        <v>0.846777168</v>
+      </c>
+      <c r="P94">
+        <v>1.975813392</v>
+      </c>
+      <c r="Q94">
+        <v>2.715813392</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.092549127458901</v>
+      </c>
+      <c r="T94">
+        <v>6.629196455004929</v>
+      </c>
+      <c r="U94">
+        <v>0.0178</v>
+      </c>
+      <c r="V94">
+        <v>0.3</v>
+      </c>
+      <c r="W94">
+        <v>0.01246</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>11.17481798744844</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.09853964208816213</v>
+      </c>
+      <c r="C95">
+        <v>12.11654478218145</v>
+      </c>
+      <c r="D95">
+        <v>27.28774478218145</v>
+      </c>
+      <c r="E95">
+        <v>5.254200000000003</v>
+      </c>
+      <c r="F95">
+        <v>15.7542</v>
+      </c>
+      <c r="G95">
+        <v>0.583</v>
+      </c>
+      <c r="H95">
+        <v>6.44</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>3.84</v>
+      </c>
+      <c r="K95">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L95">
+        <v>3.1</v>
+      </c>
+      <c r="M95">
+        <v>0.2804247600000001</v>
+      </c>
+      <c r="N95">
+        <v>2.81957524</v>
+      </c>
+      <c r="O95">
+        <v>0.8458725719999999</v>
+      </c>
+      <c r="P95">
+        <v>1.973702668</v>
+      </c>
+      <c r="Q95">
+        <v>2.713702668</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.242169172688031</v>
+      </c>
+      <c r="T95">
+        <v>7.544831324480748</v>
+      </c>
+      <c r="U95">
+        <v>0.0178</v>
+      </c>
+      <c r="V95">
+        <v>0.3</v>
+      </c>
+      <c r="W95">
+        <v>0.01246</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>11.05465865425007</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.09821215397961222</v>
+      </c>
+      <c r="C96">
+        <v>12.04765311006831</v>
+      </c>
+      <c r="D96">
+        <v>27.38825311006831</v>
+      </c>
+      <c r="E96">
+        <v>5.423600000000002</v>
+      </c>
+      <c r="F96">
+        <v>15.9236</v>
+      </c>
+      <c r="G96">
+        <v>0.583</v>
+      </c>
+      <c r="H96">
+        <v>6.44</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>3.84</v>
+      </c>
+      <c r="K96">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L96">
+        <v>3.1</v>
+      </c>
+      <c r="M96">
+        <v>0.28344008</v>
+      </c>
+      <c r="N96">
+        <v>2.81655992</v>
+      </c>
+      <c r="O96">
+        <v>0.844967976</v>
+      </c>
+      <c r="P96">
+        <v>1.971591944</v>
+      </c>
+      <c r="Q96">
+        <v>2.711591944</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.441662566326872</v>
+      </c>
+      <c r="T96">
+        <v>8.765677817115177</v>
+      </c>
+      <c r="U96">
+        <v>0.0178</v>
+      </c>
+      <c r="V96">
+        <v>0.3</v>
+      </c>
+      <c r="W96">
+        <v>0.01246</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>10.93705590260911</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.09788466587106232</v>
+      </c>
+      <c r="C97">
+        <v>11.97950457519837</v>
+      </c>
+      <c r="D97">
+        <v>27.48950457519837</v>
+      </c>
+      <c r="E97">
+        <v>5.593000000000004</v>
+      </c>
+      <c r="F97">
+        <v>16.093</v>
+      </c>
+      <c r="G97">
+        <v>0.583</v>
+      </c>
+      <c r="H97">
+        <v>6.44</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>3.84</v>
+      </c>
+      <c r="K97">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L97">
+        <v>3.1</v>
+      </c>
+      <c r="M97">
+        <v>0.2864554000000001</v>
+      </c>
+      <c r="N97">
+        <v>2.8135446</v>
+      </c>
+      <c r="O97">
+        <v>0.84406338</v>
+      </c>
+      <c r="P97">
+        <v>1.96948122</v>
+      </c>
+      <c r="Q97">
+        <v>2.70948122</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.720953317421249</v>
+      </c>
+      <c r="T97">
+        <v>10.47486290680338</v>
+      </c>
+      <c r="U97">
+        <v>0.0178</v>
+      </c>
+      <c r="V97">
+        <v>0.3</v>
+      </c>
+      <c r="W97">
+        <v>0.01246</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>10.82192899837112</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.0975571777625124</v>
+      </c>
+      <c r="C98">
+        <v>11.91210745005271</v>
+      </c>
+      <c r="D98">
+        <v>27.59150745005271</v>
+      </c>
+      <c r="E98">
+        <v>5.7624</v>
+      </c>
+      <c r="F98">
+        <v>16.2624</v>
+      </c>
+      <c r="G98">
+        <v>0.583</v>
+      </c>
+      <c r="H98">
+        <v>6.44</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>3.84</v>
+      </c>
+      <c r="K98">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>0.28947072</v>
+      </c>
+      <c r="N98">
+        <v>2.81052928</v>
+      </c>
+      <c r="O98">
+        <v>0.843158784</v>
+      </c>
+      <c r="P98">
+        <v>1.967370496</v>
+      </c>
+      <c r="Q98">
+        <v>2.707370496</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.139889444062808</v>
+      </c>
+      <c r="T98">
+        <v>13.03864054133564</v>
+      </c>
+      <c r="U98">
+        <v>0.0178</v>
+      </c>
+      <c r="V98">
+        <v>0.3</v>
+      </c>
+      <c r="W98">
+        <v>0.01246</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>10.70920057130476</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.09872348965396249</v>
+      </c>
+      <c r="C99">
+        <v>11.38284335431503</v>
+      </c>
+      <c r="D99">
+        <v>27.23164335431503</v>
+      </c>
+      <c r="E99">
+        <v>5.931799999999999</v>
+      </c>
+      <c r="F99">
+        <v>16.4318</v>
+      </c>
+      <c r="G99">
+        <v>0.583</v>
+      </c>
+      <c r="H99">
+        <v>6.44</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>3.84</v>
+      </c>
+      <c r="K99">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>0.3286359999999999</v>
+      </c>
+      <c r="N99">
+        <v>2.771364</v>
+      </c>
+      <c r="O99">
+        <v>0.8314092000000001</v>
+      </c>
+      <c r="P99">
+        <v>1.9399548</v>
+      </c>
+      <c r="Q99">
+        <v>2.6799548</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.838116321798748</v>
+      </c>
+      <c r="T99">
+        <v>17.31160326555613</v>
+      </c>
+      <c r="U99">
+        <v>0.02</v>
+      </c>
+      <c r="V99">
+        <v>0.3</v>
+      </c>
+      <c r="W99">
+        <v>0.014</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>9.432928833116277</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.09841140154541257</v>
+      </c>
+      <c r="C100">
+        <v>11.30881467515351</v>
+      </c>
+      <c r="D100">
+        <v>27.32701467515351</v>
+      </c>
+      <c r="E100">
+        <v>6.101200000000002</v>
+      </c>
+      <c r="F100">
+        <v>16.6012</v>
+      </c>
+      <c r="G100">
+        <v>0.583</v>
+      </c>
+      <c r="H100">
+        <v>6.44</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>3.84</v>
+      </c>
+      <c r="K100">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L100">
+        <v>3.1</v>
+      </c>
+      <c r="M100">
+        <v>0.332024</v>
+      </c>
+      <c r="N100">
+        <v>2.767976</v>
+      </c>
+      <c r="O100">
+        <v>0.8303927999999999</v>
+      </c>
+      <c r="P100">
+        <v>1.9375832</v>
+      </c>
+      <c r="Q100">
+        <v>2.6775832</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.234570077270625</v>
+      </c>
+      <c r="T100">
+        <v>25.85752871399709</v>
+      </c>
+      <c r="U100">
+        <v>0.02</v>
+      </c>
+      <c r="V100">
+        <v>0.3</v>
+      </c>
+      <c r="W100">
+        <v>0.014</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>9.336674457268149</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.09809931343686266</v>
+      </c>
+      <c r="C101">
+        <v>11.23545636728155</v>
+      </c>
+      <c r="D101">
+        <v>27.42305636728155</v>
+      </c>
+      <c r="E101">
+        <v>6.270600000000002</v>
+      </c>
+      <c r="F101">
+        <v>16.7706</v>
+      </c>
+      <c r="G101">
+        <v>0.583</v>
+      </c>
+      <c r="H101">
+        <v>6.44</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>3.84</v>
+      </c>
+      <c r="K101">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>0.335412</v>
+      </c>
+      <c r="N101">
+        <v>2.764588</v>
+      </c>
+      <c r="O101">
+        <v>0.8293764</v>
+      </c>
+      <c r="P101">
+        <v>1.9352116</v>
+      </c>
+      <c r="Q101">
+        <v>2.6752116</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.42393134368626</v>
+      </c>
+      <c r="T101">
+        <v>51.49530505931999</v>
+      </c>
+      <c r="U101">
+        <v>0.02</v>
+      </c>
+      <c r="V101">
+        <v>0.3</v>
+      </c>
+      <c r="W101">
+        <v>0.014</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>9.242364614265442</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
